--- a/docs/Examples/Diad_Fitting_Nov22nd2022/Fityk_results.xlsx
+++ b/docs/Examples/Diad_Fitting_Nov22nd2022/Fityk_results.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\DiadFit_outer\docs\Examples\Diad_Fitting_Nov22nd2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA15BEE9-37BB-4A33-B164-8B523F6751B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF5FBC-CEB8-4B91-A1AF-75722F174CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="3" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
+    <workbookView minimized="1" xWindow="34245" yWindow="2520" windowWidth="14400" windowHeight="7455" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
   </bookViews>
   <sheets>
     <sheet name="112820_FULL" sheetId="1" r:id="rId1"/>
     <sheet name="NEON" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="315">
   <si>
     <t>Date</t>
   </si>
@@ -955,286 +954,73 @@
     <t>filename</t>
   </si>
   <si>
-    <t>NE28.txt</t>
-  </si>
-  <si>
-    <t>NE29.txt</t>
-  </si>
-  <si>
-    <t>NE38.txt</t>
-  </si>
-  <si>
-    <t>NE39.txt</t>
-  </si>
-  <si>
-    <t>NE40.txt</t>
-  </si>
-  <si>
-    <t>NE41.txt</t>
-  </si>
-  <si>
-    <t>NE48.txt</t>
-  </si>
-  <si>
-    <t>NE49.txt</t>
-  </si>
-  <si>
-    <t>NE54.txt</t>
-  </si>
-  <si>
-    <t>NE55.txt</t>
-  </si>
-  <si>
-    <t>NE58.txt</t>
-  </si>
-  <si>
-    <t>NE59.txt</t>
-  </si>
-  <si>
-    <t>NE60.txt</t>
-  </si>
-  <si>
-    <t>NE61.txt</t>
-  </si>
-  <si>
-    <t>NE62.txt</t>
-  </si>
-  <si>
-    <t>NE63.txt</t>
-  </si>
-  <si>
-    <t>NE64.txt</t>
-  </si>
-  <si>
-    <t>NE65.txt</t>
-  </si>
-  <si>
-    <t>NE66.txt</t>
-  </si>
-  <si>
-    <t>NE67.txt</t>
-  </si>
-  <si>
-    <t>NE68.txt</t>
-  </si>
-  <si>
-    <t>NE69.txt</t>
-  </si>
-  <si>
-    <t>NE70.txt</t>
-  </si>
-  <si>
-    <t>NE71.txt</t>
-  </si>
-  <si>
-    <t>NE72.txt</t>
-  </si>
-  <si>
-    <t>NE73.txt</t>
-  </si>
-  <si>
-    <t>NE74.txt</t>
-  </si>
-  <si>
-    <t>NE75.txt</t>
-  </si>
-  <si>
-    <t>NE76.txt</t>
-  </si>
-  <si>
-    <t>NE77.txt</t>
-  </si>
-  <si>
-    <t>Ne10.txt</t>
-  </si>
-  <si>
-    <t>Ne11.txt</t>
-  </si>
-  <si>
-    <t>Ne12.txt</t>
-  </si>
-  <si>
-    <t>Ne13.txt</t>
-  </si>
-  <si>
-    <t>Ne14.txt</t>
-  </si>
-  <si>
-    <t>Ne15.txt</t>
-  </si>
-  <si>
-    <t>Ne16.txt</t>
-  </si>
-  <si>
-    <t>Ne17.txt</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 29, 2020
-</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:06:41 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:18:29 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:28:42 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:07:01 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:14:20 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:21:12 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:36:29 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:44:10 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:51:52 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:59:21 AM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:26:01 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:36:59 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:46:25 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:53:28 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:00:30 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:07:37 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:14:40 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:23:19 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:43:28 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:48:51 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:55:42 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:03:24 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:11:54 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:20:20 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:20:05 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:35:33 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:14:46 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:22:42 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:45:11 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:50:52 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:57:14 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:05:11 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:11:49 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:22:57 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:29:45 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:38:34 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:45:21 PM
-</t>
-  </si>
-  <si>
-    <t>['0h', '3m', '46s']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:54:10 PM
-</t>
+    <t>Splitting</t>
+  </si>
+  <si>
+    <t>Diad1_Combofit_Cent</t>
+  </si>
+  <si>
+    <t>Diad1_Combofit_Height</t>
+  </si>
+  <si>
+    <t>Diad1_Voigt_Cent</t>
+  </si>
+  <si>
+    <t>Diad1_Voigt_Area</t>
+  </si>
+  <si>
+    <t>Diad1_Voigt_Sigma</t>
+  </si>
+  <si>
+    <t>Diad1_Voigt_Gamma</t>
+  </si>
+  <si>
+    <t>Residual_Diad1</t>
+  </si>
+  <si>
+    <t>Diad1_Prop_Lor</t>
+  </si>
+  <si>
+    <t>Diad1_refit</t>
+  </si>
+  <si>
+    <t>Diad2_Combofit_Cent</t>
+  </si>
+  <si>
+    <t>Diad2_Combofit_Height</t>
+  </si>
+  <si>
+    <t>Diad2_Voigt_Cent</t>
+  </si>
+  <si>
+    <t>Diad2_Voigt_Area</t>
+  </si>
+  <si>
+    <t>Diad2_Voigt_Sigma</t>
+  </si>
+  <si>
+    <t>Diad2_Voigt_Gamma</t>
+  </si>
+  <si>
+    <t>Residual_Diad2</t>
+  </si>
+  <si>
+    <t>Diad2_Prop_Lor</t>
+  </si>
+  <si>
+    <t>Diad2_refit</t>
+  </si>
+  <si>
+    <t>HB1_Cent</t>
+  </si>
+  <si>
+    <t>POC56</t>
+  </si>
+  <si>
+    <t>POC57-0.04</t>
+  </si>
+  <si>
+    <t>POC53</t>
   </si>
 </sst>
 </file>
@@ -1262,12 +1048,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1282,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1296,6 +1088,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7530,13 +7324,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDC9769-CDC1-424D-9AE4-8B7EF174E4CB}">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11828,6 +11622,101 @@
       </c>
       <c r="X57" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D58" s="12">
+        <v>1286.71825544335</v>
+      </c>
+      <c r="E58" s="12">
+        <v>1389.4456807658701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>44164</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.0121296296296296</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62">
+        <v>1286.6950999999999</v>
+      </c>
+      <c r="E62">
+        <v>1389.4318000000001</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62" si="12">E62-D62</f>
+        <v>102.73670000000016</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" ref="G62" si="13">F62*S62/R62</f>
+        <v>102.79895403401032</v>
+      </c>
+      <c r="H62">
+        <v>0.1</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.10073648899421098</v>
+      </c>
+      <c r="J62" s="5">
+        <v>2.9538030401439822E-4</v>
+      </c>
+      <c r="K62" s="6">
+        <v>37</v>
+      </c>
+      <c r="L62" s="9">
+        <v>37.01</v>
+      </c>
+      <c r="M62" s="7">
+        <v>6.6666666666677088E-3</v>
+      </c>
+      <c r="N62">
+        <v>1.7260999999999999E-3</v>
+      </c>
+      <c r="O62">
+        <v>1123.4567999999999</v>
+      </c>
+      <c r="Q62">
+        <v>1453.7343000000001</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ref="R62" si="14">Q62-O62</f>
+        <v>330.27750000000015</v>
+      </c>
+      <c r="S62" s="9">
+        <f t="shared" ref="S62" si="15">V62-T62</f>
+        <v>330.47763400000008</v>
+      </c>
+      <c r="T62" s="9">
+        <v>1122.7762889999999</v>
+      </c>
+      <c r="U62" s="9">
+        <v>1225.7967639999999</v>
+      </c>
+      <c r="V62" s="9">
+        <v>1453.253923</v>
+      </c>
+      <c r="W62" t="s">
+        <v>170</v>
+      </c>
+      <c r="X62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="D63" s="12">
+        <v>1286.6965291617901</v>
+      </c>
+      <c r="E63" s="12">
+        <v>1389.43727525135</v>
+      </c>
+      <c r="F63">
+        <f>E63-D63</f>
+        <v>102.74074608955993</v>
       </c>
     </row>
   </sheetData>
@@ -17076,6685 +16965,1203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5FCBC-0A4B-404D-A4DE-55BED06469F5}">
-  <dimension ref="A1:S78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7E02C-311D-4304-9009-D9F0B8179AF8}">
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R1" t="s">
-        <v>191</v>
-      </c>
-      <c r="S1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2">
-        <v>1453.7386553035799</v>
-      </c>
-      <c r="D2">
-        <v>18569.114807079601</v>
-      </c>
-      <c r="E2">
-        <v>0.63903666511524604</v>
-      </c>
-      <c r="G2">
-        <v>2.3900000000000002E-3</v>
-      </c>
-      <c r="H2">
-        <v>1123.4584217885099</v>
-      </c>
-      <c r="I2">
-        <v>1646.0355453898801</v>
-      </c>
-      <c r="J2">
-        <v>0.63861706661619899</v>
-      </c>
-      <c r="M2">
-        <v>330.28023351506999</v>
-      </c>
-      <c r="N2">
-        <v>1.0005976767954301</v>
-      </c>
-      <c r="Q2">
-        <v>36.501625982156497</v>
-      </c>
-      <c r="R2">
-        <v>6.7644942205434599</v>
-      </c>
-      <c r="S2">
-        <v>43.266120202700002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3">
-        <v>1453.7405536248</v>
-      </c>
-      <c r="D3">
-        <v>18495.4167812907</v>
-      </c>
-      <c r="E3">
-        <v>0.64030175401299705</v>
-      </c>
-      <c r="G3">
-        <v>2.2599999999999999E-3</v>
-      </c>
-      <c r="H3">
-        <v>1123.46169520943</v>
-      </c>
-      <c r="I3">
-        <v>1626.8119752214</v>
-      </c>
-      <c r="J3">
-        <v>0.652307992910795</v>
-      </c>
-      <c r="M3">
-        <v>330.27885841537397</v>
-      </c>
-      <c r="N3">
-        <v>1.0006018427343799</v>
-      </c>
-      <c r="Q3">
-        <v>34.4441081807364</v>
-      </c>
-      <c r="R3">
-        <v>5.43262448683637</v>
-      </c>
-      <c r="S3">
-        <v>39.876732667572703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4">
-        <v>1453.73866036904</v>
-      </c>
-      <c r="D4">
-        <v>18684.967094813299</v>
-      </c>
-      <c r="E4">
-        <v>0.64119981191404296</v>
-      </c>
-      <c r="G4">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="H4">
-        <v>1123.45872889718</v>
-      </c>
-      <c r="I4">
-        <v>1644.33929922631</v>
-      </c>
-      <c r="J4">
-        <v>0.63629712290312102</v>
-      </c>
-      <c r="M4">
-        <v>330.27993147185902</v>
-      </c>
-      <c r="N4">
-        <v>1.0005985918487099</v>
-      </c>
-      <c r="Q4">
-        <v>36.445843175326999</v>
-      </c>
-      <c r="R4">
-        <v>6.50755564368463</v>
-      </c>
-      <c r="S4">
-        <v>42.953398819011703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5">
-        <v>1453.7370024356301</v>
-      </c>
-      <c r="D5">
-        <v>18494.598554432501</v>
-      </c>
-      <c r="E5">
-        <v>0.64273781706268496</v>
-      </c>
-      <c r="G5">
-        <v>2.3800000000000002E-3</v>
-      </c>
-      <c r="H5">
-        <v>1123.46166855417</v>
-      </c>
-      <c r="I5">
-        <v>1659.56486601457</v>
-      </c>
-      <c r="J5">
-        <v>0.63755763185568204</v>
-      </c>
-      <c r="M5">
-        <v>330.27533388146003</v>
-      </c>
-      <c r="N5">
-        <v>1.0006125206590299</v>
-      </c>
-      <c r="Q5">
-        <v>35.440819607706999</v>
-      </c>
-      <c r="R5">
-        <v>5.5200116731995799</v>
-      </c>
-      <c r="S5">
-        <v>40.960831280906604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6">
-        <v>1453.74085273386</v>
-      </c>
-      <c r="D6">
-        <v>19150.708876028701</v>
-      </c>
-      <c r="E6">
-        <v>0.63603388700694696</v>
-      </c>
-      <c r="G6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H6">
-        <v>1123.45499873881</v>
-      </c>
-      <c r="I6">
-        <v>1688.25131652306</v>
-      </c>
-      <c r="J6">
-        <v>0.63608478333506102</v>
-      </c>
-      <c r="M6">
-        <v>330.28585399504601</v>
-      </c>
-      <c r="N6">
-        <v>1.0005806496078</v>
-      </c>
-      <c r="Q6">
-        <v>39.065533028461502</v>
-      </c>
-      <c r="R6">
-        <v>7.00329540417607</v>
-      </c>
-      <c r="S6">
-        <v>46.068828432637602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7">
-        <v>1453.7454603030601</v>
-      </c>
-      <c r="D7">
-        <v>20158.794865985299</v>
-      </c>
-      <c r="E7">
-        <v>0.64039392890454805</v>
-      </c>
-      <c r="G7">
-        <v>2.3800000000000002E-3</v>
-      </c>
-      <c r="H7">
-        <v>1123.4587275412</v>
-      </c>
-      <c r="I7">
-        <v>1675.4178867984399</v>
-      </c>
-      <c r="J7">
-        <v>0.64988461557362298</v>
-      </c>
-      <c r="M7">
-        <v>330.28673276186601</v>
-      </c>
-      <c r="N7">
-        <v>1.0005779874449401</v>
-      </c>
-      <c r="Q7">
-        <v>39.0550017899522</v>
-      </c>
-      <c r="R7">
-        <v>5.6529464160433802</v>
-      </c>
-      <c r="S7">
-        <v>44.7079482059955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8">
-        <v>1453.7420031705401</v>
-      </c>
-      <c r="D8">
-        <v>19418.4756583827</v>
-      </c>
-      <c r="E8">
-        <v>0.63870319176301604</v>
-      </c>
-      <c r="G8">
-        <v>2.4199999999999998E-3</v>
-      </c>
-      <c r="H8">
-        <v>1123.44720002694</v>
-      </c>
-      <c r="I8">
-        <v>1690.15166717989</v>
-      </c>
-      <c r="J8">
-        <v>0.63816113462785795</v>
-      </c>
-      <c r="M8">
-        <v>330.29480314359301</v>
-      </c>
-      <c r="N8">
-        <v>1.00055353944809</v>
-      </c>
-      <c r="Q8">
-        <v>38.276605277699403</v>
-      </c>
-      <c r="R8">
-        <v>8.3652589891108597</v>
-      </c>
-      <c r="S8">
-        <v>46.641864266810302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9">
-        <v>1453.74355586757</v>
-      </c>
-      <c r="D9">
-        <v>20886.2739509932</v>
-      </c>
-      <c r="E9">
-        <v>0.636783436375153</v>
-      </c>
-      <c r="G9">
-        <v>2.3900000000000002E-3</v>
-      </c>
-      <c r="H9">
-        <v>1123.47094224783</v>
-      </c>
-      <c r="I9">
-        <v>1688.39264173229</v>
-      </c>
-      <c r="J9">
-        <v>0.65250138477239805</v>
-      </c>
-      <c r="M9">
-        <v>330.27261361974399</v>
-      </c>
-      <c r="N9">
-        <v>1.0006207621172101</v>
-      </c>
-      <c r="Q9">
-        <v>40.877403689150597</v>
-      </c>
-      <c r="R9">
-        <v>5.4591240361992801</v>
-      </c>
-      <c r="S9">
-        <v>46.336527725349903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10">
-        <v>1453.73775987467</v>
-      </c>
-      <c r="D10">
-        <v>18991.1640477402</v>
-      </c>
-      <c r="E10">
-        <v>0.64151503461704296</v>
-      </c>
-      <c r="G10">
-        <v>2.6099999999999999E-3</v>
-      </c>
-      <c r="H10">
-        <v>1123.4583689476401</v>
-      </c>
-      <c r="I10">
-        <v>1761.01711330477</v>
-      </c>
-      <c r="J10">
-        <v>0.63999602904253305</v>
-      </c>
-      <c r="M10">
-        <v>330.27939092702201</v>
-      </c>
-      <c r="N10">
-        <v>1.0006002294574099</v>
-      </c>
-      <c r="Q10">
-        <v>39.5970702705851</v>
-      </c>
-      <c r="R10">
-        <v>7.1220127742091703</v>
-      </c>
-      <c r="S10">
-        <v>46.719083044794303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11">
-        <v>1453.7384310612299</v>
-      </c>
-      <c r="D11">
-        <v>18879.442393490499</v>
-      </c>
-      <c r="E11">
-        <v>0.63817309031135605</v>
-      </c>
-      <c r="G11">
-        <v>2.5600000000000002E-3</v>
-      </c>
-      <c r="H11">
-        <v>1123.45492086683</v>
-      </c>
-      <c r="I11">
-        <v>1729.3709281093199</v>
-      </c>
-      <c r="J11">
-        <v>0.64577268154077805</v>
-      </c>
-      <c r="M11">
-        <v>330.28351019439998</v>
-      </c>
-      <c r="N11">
-        <v>1.0005877500578699</v>
-      </c>
-      <c r="Q11">
-        <v>38.7481188984654</v>
-      </c>
-      <c r="R11">
-        <v>5.9263834057848399</v>
-      </c>
-      <c r="S11">
-        <v>44.674502304250197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12">
-        <v>1453.7413184792899</v>
-      </c>
-      <c r="D12">
-        <v>18223.8891538471</v>
-      </c>
-      <c r="E12">
-        <v>0.64043853899452197</v>
-      </c>
-      <c r="G12">
-        <v>2.4299999999999999E-3</v>
-      </c>
-      <c r="H12">
-        <v>1123.46940928462</v>
-      </c>
-      <c r="I12">
-        <v>1709.4868568516899</v>
-      </c>
-      <c r="J12">
-        <v>0.63797437856461503</v>
-      </c>
-      <c r="M12">
-        <v>330.27190919467699</v>
-      </c>
-      <c r="N12">
-        <v>1.00062289630521</v>
-      </c>
-      <c r="Q12">
-        <v>35.547938510886702</v>
-      </c>
-      <c r="R12">
-        <v>6.2021015979044902</v>
-      </c>
-      <c r="S12">
-        <v>41.750040108791197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13">
-        <v>1453.73961095255</v>
-      </c>
-      <c r="D13">
-        <v>18629.213013917801</v>
-      </c>
-      <c r="E13">
-        <v>0.64056425722436106</v>
-      </c>
-      <c r="G13">
-        <v>2.4599999999999999E-3</v>
-      </c>
-      <c r="H13">
-        <v>1123.4556315264399</v>
-      </c>
-      <c r="I13">
-        <v>1791.8039093479799</v>
-      </c>
-      <c r="J13">
-        <v>0.63354819751328095</v>
-      </c>
-      <c r="M13">
-        <v>330.283979426109</v>
-      </c>
-      <c r="N13">
-        <v>1.00058632853116</v>
-      </c>
-      <c r="Q13">
-        <v>37.229543969174301</v>
-      </c>
-      <c r="R13">
-        <v>6.6109227531902199</v>
-      </c>
-      <c r="S13">
-        <v>43.840466722364503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14">
-        <v>1453.73856679394</v>
-      </c>
-      <c r="D14">
-        <v>18669.510662801302</v>
-      </c>
-      <c r="E14">
-        <v>0.63866742489413697</v>
-      </c>
-      <c r="G14">
-        <v>2.4599999999999999E-3</v>
-      </c>
-      <c r="H14">
-        <v>1123.46059429088</v>
-      </c>
-      <c r="I14">
-        <v>1742.3547525609399</v>
-      </c>
-      <c r="J14">
-        <v>0.65015368393786899</v>
-      </c>
-      <c r="M14">
-        <v>330.27797250306702</v>
-      </c>
-      <c r="N14">
-        <v>1.00060452667204</v>
-      </c>
-      <c r="Q14">
-        <v>36.890404488915003</v>
-      </c>
-      <c r="R14">
-        <v>5.8379371315170596</v>
-      </c>
-      <c r="S14">
-        <v>42.728341620432097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15">
-        <v>1453.73943492942</v>
-      </c>
-      <c r="D15">
-        <v>18166.783846657199</v>
-      </c>
-      <c r="E15">
-        <v>0.64061715738053604</v>
-      </c>
-      <c r="G15">
-        <v>2.5100000000000001E-3</v>
-      </c>
-      <c r="H15">
-        <v>1123.4648328642199</v>
-      </c>
-      <c r="I15">
-        <v>1725.2517356803201</v>
-      </c>
-      <c r="J15">
-        <v>0.63705150946588596</v>
-      </c>
-      <c r="M15">
-        <v>330.27460206519697</v>
-      </c>
-      <c r="N15">
-        <v>1.0006147377974699</v>
-      </c>
-      <c r="Q15">
-        <v>36.3856382280565</v>
-      </c>
-      <c r="R15">
-        <v>7.59091753726692</v>
-      </c>
-      <c r="S15">
-        <v>43.976555765323397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16">
-        <v>1453.73550365233</v>
-      </c>
-      <c r="D16">
-        <v>18668.966232250601</v>
-      </c>
-      <c r="E16">
-        <v>0.63979962119415201</v>
-      </c>
-      <c r="G16">
-        <v>2.4499999999999999E-3</v>
-      </c>
-      <c r="H16">
-        <v>1123.4605841668399</v>
-      </c>
-      <c r="I16">
-        <v>1762.51914366656</v>
-      </c>
-      <c r="J16">
-        <v>0.64986569268842098</v>
-      </c>
-      <c r="M16">
-        <v>330.27491948548402</v>
-      </c>
-      <c r="N16">
-        <v>1.0006137761276701</v>
-      </c>
-      <c r="Q16">
-        <v>36.661310583243598</v>
-      </c>
-      <c r="R16">
-        <v>7.5173409311866104</v>
-      </c>
-      <c r="S16">
-        <v>44.1786515144303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17">
-        <v>1453.7366903080199</v>
-      </c>
-      <c r="D17">
-        <v>18351.1607536909</v>
-      </c>
-      <c r="E17">
-        <v>0.63970719711962698</v>
-      </c>
-      <c r="G17">
-        <v>2.4499999999999999E-3</v>
-      </c>
-      <c r="H17">
-        <v>1123.4577762383101</v>
-      </c>
-      <c r="I17">
-        <v>1737.4482033561201</v>
-      </c>
-      <c r="J17">
-        <v>0.64200001783474103</v>
-      </c>
-      <c r="M17">
-        <v>330.27891406971298</v>
-      </c>
-      <c r="N17">
-        <v>1.0006016741258701</v>
-      </c>
-      <c r="Q17">
-        <v>35.799907998172301</v>
-      </c>
-      <c r="R17">
-        <v>6.3065008130359699</v>
-      </c>
-      <c r="S17">
-        <v>42.106408811208297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18">
-        <v>1453.7346528646899</v>
-      </c>
-      <c r="D18">
-        <v>19193.816896649201</v>
-      </c>
-      <c r="E18">
-        <v>0.63914691890864905</v>
-      </c>
-      <c r="G18">
-        <v>2.5200000000000001E-3</v>
-      </c>
-      <c r="H18">
-        <v>1123.4646862196901</v>
-      </c>
-      <c r="I18">
-        <v>1752.19308833373</v>
-      </c>
-      <c r="J18">
-        <v>0.65515793369904796</v>
-      </c>
-      <c r="M18">
-        <v>330.26996664499899</v>
-      </c>
-      <c r="N18">
-        <v>1.0006287816713699</v>
-      </c>
-      <c r="Q18">
-        <v>39.374579670414903</v>
-      </c>
-      <c r="R18">
-        <v>6.17441717146699</v>
-      </c>
-      <c r="S18">
-        <v>45.548996841881902</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19">
-        <v>1453.73416290507</v>
-      </c>
-      <c r="D19">
-        <v>18659.542690920101</v>
-      </c>
-      <c r="E19">
-        <v>0.63995129735902401</v>
-      </c>
-      <c r="G19">
-        <v>2.5799999999999998E-3</v>
-      </c>
-      <c r="H19">
-        <v>1123.45329976976</v>
-      </c>
-      <c r="I19">
-        <v>1728.8367121741201</v>
-      </c>
-      <c r="J19">
-        <v>0.63768123635631502</v>
-      </c>
-      <c r="M19">
-        <v>330.28086313530798</v>
-      </c>
-      <c r="N19">
-        <v>1.00059576933842</v>
-      </c>
-      <c r="Q19">
-        <v>38.0836656448786</v>
-      </c>
-      <c r="R19">
-        <v>6.58530795824593</v>
-      </c>
-      <c r="S19">
-        <v>44.668973603124599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20">
-        <v>1453.7359659251999</v>
-      </c>
-      <c r="D20">
-        <v>19389.559520130701</v>
-      </c>
-      <c r="E20">
-        <v>0.64080946818568696</v>
-      </c>
-      <c r="G20">
-        <v>2.4299999999999999E-3</v>
-      </c>
-      <c r="H20">
-        <v>1123.45891507736</v>
-      </c>
-      <c r="I20">
-        <v>1704.15459000808</v>
-      </c>
-      <c r="J20">
-        <v>0.63668946285911998</v>
-      </c>
-      <c r="M20">
-        <v>330.27705084784299</v>
-      </c>
-      <c r="N20">
-        <v>1.00060731891081</v>
-      </c>
-      <c r="Q20">
-        <v>37.915487505417701</v>
-      </c>
-      <c r="R20">
-        <v>7.4271589339199604</v>
-      </c>
-      <c r="S20">
-        <v>45.342646439337699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>297</v>
-      </c>
-      <c r="C21">
-        <v>1453.7368250576001</v>
-      </c>
-      <c r="D21">
-        <v>19221.655509670702</v>
-      </c>
-      <c r="E21">
-        <v>0.639996168190609</v>
-      </c>
-      <c r="G21">
-        <v>2.4199999999999998E-3</v>
-      </c>
-      <c r="H21">
-        <v>1123.4508613969101</v>
-      </c>
-      <c r="I21">
-        <v>1716.8011394055</v>
-      </c>
-      <c r="J21">
-        <v>0.64197478642787698</v>
-      </c>
-      <c r="M21">
-        <v>330.285963660692</v>
-      </c>
-      <c r="N21">
-        <v>1.00058031738259</v>
-      </c>
-      <c r="Q21">
-        <v>38.349486855264999</v>
-      </c>
-      <c r="R21">
-        <v>7.14435979924784</v>
-      </c>
-      <c r="S21">
-        <v>45.4938466545129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22">
-        <v>1453.73830064761</v>
-      </c>
-      <c r="D22">
-        <v>19281.198125667299</v>
-      </c>
-      <c r="E22">
-        <v>0.64123414579312998</v>
-      </c>
-      <c r="G22">
-        <v>2.4499999999999999E-3</v>
-      </c>
-      <c r="H22">
-        <v>1123.4650851955601</v>
-      </c>
-      <c r="I22">
-        <v>1778.4222498685899</v>
-      </c>
-      <c r="J22">
-        <v>0.64555522002063703</v>
-      </c>
-      <c r="M22">
-        <v>330.27321545205001</v>
-      </c>
-      <c r="N22">
-        <v>1.00061893876045</v>
-      </c>
-      <c r="Q22">
-        <v>38.580558901062901</v>
-      </c>
-      <c r="R22">
-        <v>7.9634705213972801</v>
-      </c>
-      <c r="S22">
-        <v>46.544029422460198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23">
-        <v>1453.73505535046</v>
-      </c>
-      <c r="D23">
-        <v>19746.048862041102</v>
-      </c>
-      <c r="E23">
-        <v>0.63825560922991098</v>
-      </c>
-      <c r="G23">
-        <v>2.48E-3</v>
-      </c>
-      <c r="H23">
-        <v>1123.4714267274401</v>
-      </c>
-      <c r="I23">
-        <v>1735.4920847143001</v>
-      </c>
-      <c r="J23">
-        <v>0.64672677868295803</v>
-      </c>
-      <c r="M23">
-        <v>330.26362862302199</v>
-      </c>
-      <c r="N23">
-        <v>1.0006479845343601</v>
-      </c>
-      <c r="Q23">
-        <v>40.298596518460101</v>
-      </c>
-      <c r="R23">
-        <v>6.8089625731392696</v>
-      </c>
-      <c r="S23">
-        <v>47.107559091599398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C24">
-        <v>1453.7367239932901</v>
-      </c>
-      <c r="D24">
-        <v>18510.933367353002</v>
-      </c>
-      <c r="E24">
-        <v>0.63797220545788502</v>
-      </c>
-      <c r="G24">
-        <v>2.3700000000000001E-3</v>
-      </c>
-      <c r="H24">
-        <v>1123.4634811558999</v>
-      </c>
-      <c r="I24">
-        <v>1751.1960267120501</v>
-      </c>
-      <c r="J24">
-        <v>0.63321953223199401</v>
-      </c>
-      <c r="M24">
-        <v>330.27324283738398</v>
-      </c>
-      <c r="N24">
-        <v>1.00061885579192</v>
-      </c>
-      <c r="Q24">
-        <v>35.184052628005603</v>
-      </c>
-      <c r="R24">
-        <v>7.7922749294819598</v>
-      </c>
-      <c r="S24">
-        <v>42.976327557487501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25">
-        <v>1453.73672066893</v>
-      </c>
-      <c r="D25">
-        <v>18391.154334996299</v>
-      </c>
-      <c r="E25">
-        <v>0.64018798722752901</v>
-      </c>
-      <c r="G25">
-        <v>2.5400000000000002E-3</v>
-      </c>
-      <c r="H25">
-        <v>1123.4646427826401</v>
-      </c>
-      <c r="I25">
-        <v>1751.63077512428</v>
-      </c>
-      <c r="J25">
-        <v>0.63249140706581997</v>
-      </c>
-      <c r="M25">
-        <v>330.272077886293</v>
-      </c>
-      <c r="N25">
-        <v>1.00062238522146</v>
-      </c>
-      <c r="Q25">
-        <v>37.014993027744801</v>
-      </c>
-      <c r="R25">
-        <v>7.11285858366392</v>
-      </c>
-      <c r="S25">
-        <v>44.127851611408801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26">
-        <v>1453.7376726253499</v>
-      </c>
-      <c r="D26">
-        <v>18401.352294632699</v>
-      </c>
-      <c r="E26">
-        <v>0.639827136385128</v>
-      </c>
-      <c r="G26">
-        <v>2.5799999999999998E-3</v>
-      </c>
-      <c r="H26">
-        <v>1123.45460265777</v>
-      </c>
-      <c r="I26">
-        <v>1749.5321281863201</v>
-      </c>
-      <c r="J26">
-        <v>0.64138558419229896</v>
-      </c>
-      <c r="M26">
-        <v>330.28306996758403</v>
-      </c>
-      <c r="N26">
-        <v>1.0005890837186</v>
-      </c>
-      <c r="Q26">
-        <v>38.041406400380097</v>
-      </c>
-      <c r="R26">
-        <v>7.5125970244403897</v>
-      </c>
-      <c r="S26">
-        <v>45.5540034248205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27">
-        <v>1453.7355011607101</v>
-      </c>
-      <c r="D27">
-        <v>18534.235951692401</v>
-      </c>
-      <c r="E27">
-        <v>0.63740463692834204</v>
-      </c>
-      <c r="G27">
-        <v>2.5500000000000002E-3</v>
-      </c>
-      <c r="H27">
-        <v>1123.4640768699201</v>
-      </c>
-      <c r="I27">
-        <v>1704.56929577758</v>
-      </c>
-      <c r="J27">
-        <v>0.64077925823529902</v>
-      </c>
-      <c r="M27">
-        <v>330.271424290786</v>
-      </c>
-      <c r="N27">
-        <v>1.0006243654178899</v>
-      </c>
-      <c r="Q27">
-        <v>37.844584099476201</v>
-      </c>
-      <c r="R27">
-        <v>7.2562591771449201</v>
-      </c>
-      <c r="S27">
-        <v>45.100843276621198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>298</v>
-      </c>
-      <c r="C28">
-        <v>1453.7381925248601</v>
-      </c>
-      <c r="D28">
-        <v>18450.922999587201</v>
-      </c>
-      <c r="E28">
-        <v>0.63848598278690405</v>
-      </c>
-      <c r="G28">
-        <v>2.3800000000000002E-3</v>
-      </c>
-      <c r="H28">
-        <v>1123.46280620011</v>
-      </c>
-      <c r="I28">
-        <v>1788.47969138652</v>
-      </c>
-      <c r="J28">
-        <v>0.630477811115424</v>
-      </c>
-      <c r="M28">
-        <v>330.27538632474301</v>
-      </c>
-      <c r="N28">
-        <v>1.00061236177524</v>
-      </c>
-      <c r="Q28">
-        <v>35.711694726813803</v>
-      </c>
-      <c r="R28">
-        <v>19.618193323211901</v>
-      </c>
-      <c r="S28">
-        <v>55.329888050025801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29">
-        <v>1453.7367666437899</v>
-      </c>
-      <c r="D29">
-        <v>18440.837521633599</v>
-      </c>
-      <c r="E29">
-        <v>0.64328201826853804</v>
-      </c>
-      <c r="G29">
-        <v>2.4299999999999999E-3</v>
-      </c>
-      <c r="H29">
-        <v>1123.44794169998</v>
-      </c>
-      <c r="I29">
-        <v>1679.45751783022</v>
-      </c>
-      <c r="J29">
-        <v>0.63489003620615403</v>
-      </c>
-      <c r="M29">
-        <v>330.28882494381401</v>
-      </c>
-      <c r="N29">
-        <v>1.0005716493824699</v>
-      </c>
-      <c r="Q29">
-        <v>35.138857888606402</v>
-      </c>
-      <c r="R29">
-        <v>6.9648921786990599</v>
-      </c>
-      <c r="S29">
-        <v>42.103750067305398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30">
-        <v>1453.7415024122599</v>
-      </c>
-      <c r="D30">
-        <v>18825.086456691501</v>
-      </c>
-      <c r="E30">
-        <v>0.63445411269171403</v>
-      </c>
-      <c r="G30">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="H30">
-        <v>1123.4645542778701</v>
-      </c>
-      <c r="I30">
-        <v>1681.89560894491</v>
-      </c>
-      <c r="J30">
-        <v>0.64896446765548998</v>
-      </c>
-      <c r="M30">
-        <v>330.27694813439098</v>
-      </c>
-      <c r="N30">
-        <v>1.0006076300915701</v>
-      </c>
-      <c r="Q30">
-        <v>36.920673913598101</v>
-      </c>
-      <c r="R30">
-        <v>6.6366519997868698</v>
-      </c>
-      <c r="S30">
-        <v>43.557325913384901</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31">
-        <v>1453.7396214537</v>
-      </c>
-      <c r="D31">
-        <v>18737.383108319002</v>
-      </c>
-      <c r="E31">
-        <v>0.63860285538523498</v>
-      </c>
-      <c r="G31">
-        <v>2.3400000000000001E-3</v>
-      </c>
-      <c r="H31">
-        <v>1123.4581795924801</v>
-      </c>
-      <c r="I31">
-        <v>1712.6837431986901</v>
-      </c>
-      <c r="J31">
-        <v>0.63305244965986396</v>
-      </c>
-      <c r="M31">
-        <v>330.28144186121398</v>
-      </c>
-      <c r="N31">
-        <v>1.0005940160740201</v>
-      </c>
-      <c r="Q31">
-        <v>36.288241408086499</v>
-      </c>
-      <c r="R31">
-        <v>5.9696712799280398</v>
-      </c>
-      <c r="S31">
-        <v>42.2579126880145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32">
-        <v>1453.7390092278899</v>
-      </c>
-      <c r="D32">
-        <v>19165.868543618701</v>
-      </c>
-      <c r="E32">
-        <v>0.63488710797607695</v>
-      </c>
-      <c r="G32">
-        <v>2.3E-3</v>
-      </c>
-      <c r="H32">
-        <v>1123.4568984197199</v>
-      </c>
-      <c r="I32">
-        <v>1767.2390961359799</v>
-      </c>
-      <c r="J32">
-        <v>0.63897861145441903</v>
-      </c>
-      <c r="M32">
-        <v>330.28211080816601</v>
-      </c>
-      <c r="N32">
-        <v>1.0005919894904001</v>
-      </c>
-      <c r="Q32">
-        <v>36.517192839198501</v>
-      </c>
-      <c r="R32">
-        <v>7.5922004064221698</v>
-      </c>
-      <c r="S32">
-        <v>44.109393245620701</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33">
-        <v>1453.7378607588801</v>
-      </c>
-      <c r="D33">
-        <v>18627.068829539399</v>
-      </c>
-      <c r="E33">
-        <v>0.64009169073723604</v>
-      </c>
-      <c r="G33">
-        <v>2.3800000000000002E-3</v>
-      </c>
-      <c r="H33">
-        <v>1123.4567811239101</v>
-      </c>
-      <c r="I33">
-        <v>1735.6186187829101</v>
-      </c>
-      <c r="J33">
-        <v>0.644949910623977</v>
-      </c>
-      <c r="M33">
-        <v>330.28107963496598</v>
-      </c>
-      <c r="N33">
-        <v>1.00059511344665</v>
-      </c>
-      <c r="Q33">
-        <v>36.063803075225003</v>
-      </c>
-      <c r="R33">
-        <v>7.2165168535460902</v>
-      </c>
-      <c r="S33">
-        <v>43.2803199287711</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34">
-        <v>1453.7350189312499</v>
-      </c>
-      <c r="D34">
-        <v>18234.157452393199</v>
-      </c>
-      <c r="E34">
-        <v>0.63716740308424202</v>
-      </c>
-      <c r="G34">
-        <v>2.3E-3</v>
-      </c>
-      <c r="H34">
-        <v>1123.4543503909999</v>
-      </c>
-      <c r="I34">
-        <v>1715.04557467107</v>
-      </c>
-      <c r="J34">
-        <v>0.63893341029341399</v>
-      </c>
-      <c r="M34">
-        <v>330.28066854024502</v>
-      </c>
-      <c r="N34">
-        <v>1.0005963588703399</v>
-      </c>
-      <c r="Q34">
-        <v>33.676268022632598</v>
-      </c>
-      <c r="R34">
-        <v>6.1205008839891901</v>
-      </c>
-      <c r="S34">
-        <v>39.7967689066218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>301</v>
-      </c>
-      <c r="C35">
-        <v>1453.7362146826199</v>
-      </c>
-      <c r="D35">
-        <v>19103.401941612701</v>
-      </c>
-      <c r="E35">
-        <v>0.63849858824738204</v>
-      </c>
-      <c r="G35">
-        <v>2.3400000000000001E-3</v>
-      </c>
-      <c r="H35">
-        <v>1123.44633938063</v>
-      </c>
-      <c r="I35">
-        <v>1687.1532359569201</v>
-      </c>
-      <c r="J35">
-        <v>0.62599057344953801</v>
-      </c>
-      <c r="M35">
-        <v>330.28987530198901</v>
-      </c>
-      <c r="N35">
-        <v>1.0005684674544399</v>
-      </c>
-      <c r="Q35">
-        <v>36.714617268263403</v>
-      </c>
-      <c r="R35">
-        <v>8.0399937065797396</v>
-      </c>
-      <c r="S35">
-        <v>44.754610974843096</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36">
-        <v>1453.7390153762501</v>
-      </c>
-      <c r="D36">
-        <v>18898.536331297899</v>
-      </c>
-      <c r="E36">
-        <v>0.63779483171418305</v>
-      </c>
-      <c r="G36">
-        <v>2.33E-3</v>
-      </c>
-      <c r="H36">
-        <v>1123.4588481317801</v>
-      </c>
-      <c r="I36">
-        <v>1659.92047185711</v>
-      </c>
-      <c r="J36">
-        <v>0.64752810539849204</v>
-      </c>
-      <c r="M36">
-        <v>330.28016724447599</v>
-      </c>
-      <c r="N36">
-        <v>1.00059787756498</v>
-      </c>
-      <c r="Q36">
-        <v>35.464569521050102</v>
-      </c>
-      <c r="R36">
-        <v>6.5344229321700302</v>
-      </c>
-      <c r="S36">
-        <v>41.998992453220097</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37">
-        <v>1453.74086247435</v>
-      </c>
-      <c r="D37">
-        <v>18948.308580082699</v>
-      </c>
-      <c r="E37">
-        <v>0.63996952061545598</v>
-      </c>
-      <c r="G37">
-        <v>2.3800000000000002E-3</v>
-      </c>
-      <c r="H37">
-        <v>1123.45645322736</v>
-      </c>
-      <c r="I37">
-        <v>1724.4905364670501</v>
-      </c>
-      <c r="J37">
-        <v>0.63646350698111198</v>
-      </c>
-      <c r="M37">
-        <v>330.28440924699601</v>
-      </c>
-      <c r="N37">
-        <v>1.0005850264021701</v>
-      </c>
-      <c r="Q37">
-        <v>36.586075050153397</v>
-      </c>
-      <c r="R37">
-        <v>4.8462240292876997</v>
-      </c>
-      <c r="S37">
-        <v>41.432299079441101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>302</v>
-      </c>
-      <c r="C38">
-        <v>1453.7406198173201</v>
-      </c>
-      <c r="D38">
-        <v>18537.197285615901</v>
-      </c>
-      <c r="E38">
-        <v>0.64256770798580698</v>
-      </c>
-      <c r="G38">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="H38">
-        <v>1123.46872216671</v>
-      </c>
-      <c r="I38">
-        <v>1776.9223487416</v>
-      </c>
-      <c r="J38">
-        <v>0.644344593528412</v>
-      </c>
-      <c r="M38">
-        <v>330.271897650602</v>
-      </c>
-      <c r="N38">
-        <v>1.0006229312802299</v>
-      </c>
-      <c r="Q38">
-        <v>33.306041198819798</v>
-      </c>
-      <c r="R38">
-        <v>6.4237983018932399</v>
-      </c>
-      <c r="S38">
-        <v>39.729839500713098</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>303</v>
-      </c>
-      <c r="C39">
-        <v>1453.73916650512</v>
-      </c>
-      <c r="D39">
-        <v>18439.714547701598</v>
-      </c>
-      <c r="E39">
-        <v>0.63556349652518596</v>
-      </c>
-      <c r="G39">
-        <v>2.5799999999999998E-3</v>
-      </c>
-      <c r="H39">
-        <v>1123.46939410645</v>
-      </c>
-      <c r="I39">
-        <v>1648.9309748891701</v>
-      </c>
-      <c r="J39">
-        <v>0.63526726207684303</v>
-      </c>
-      <c r="M39">
-        <v>330.26977239867</v>
-      </c>
-      <c r="N39">
-        <v>1.0006293701856199</v>
-      </c>
-      <c r="Q39">
-        <v>38.434356635971497</v>
-      </c>
-      <c r="R39">
-        <v>7.5929174063031404</v>
-      </c>
-      <c r="S39">
-        <v>46.027274042274598</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>304</v>
-      </c>
-      <c r="C40">
-        <v>1453.73717462638</v>
-      </c>
-      <c r="D40">
-        <v>19260.644229185698</v>
-      </c>
-      <c r="E40">
-        <v>0.64005257474910005</v>
-      </c>
-      <c r="G40">
-        <v>2.4599999999999999E-3</v>
-      </c>
-      <c r="H40">
-        <v>1123.4656554138801</v>
-      </c>
-      <c r="I40">
-        <v>1624.0809358312299</v>
-      </c>
-      <c r="J40">
-        <v>0.63298875672552901</v>
-      </c>
-      <c r="M40">
-        <v>330.27151921249401</v>
-      </c>
-      <c r="N40">
-        <v>1.0006240778333799</v>
-      </c>
-      <c r="Q40">
-        <v>38.0969509317801</v>
-      </c>
-      <c r="R40">
-        <v>6.8789568113310002</v>
-      </c>
-      <c r="S40">
-        <v>44.975907743111101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>305</v>
-      </c>
-      <c r="C41">
-        <v>1453.7336767254901</v>
-      </c>
-      <c r="D41">
-        <v>19428.708012272498</v>
-      </c>
-      <c r="E41">
-        <v>0.64050134005544501</v>
-      </c>
-      <c r="G41">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="H41">
-        <v>1123.4593507535999</v>
-      </c>
-      <c r="I41">
-        <v>1646.43758507859</v>
-      </c>
-      <c r="J41">
-        <v>0.63834539643894594</v>
-      </c>
-      <c r="M41">
-        <v>330.27432597188198</v>
-      </c>
-      <c r="N41">
-        <v>1.00061557426285</v>
-      </c>
-      <c r="Q41">
-        <v>38.110791320313702</v>
-      </c>
-      <c r="R41">
-        <v>6.42109898424901</v>
-      </c>
-      <c r="S41">
-        <v>44.531890304562701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>306</v>
-      </c>
-      <c r="C42">
-        <v>1453.73644338195</v>
-      </c>
-      <c r="D42">
-        <v>19144.200518117901</v>
-      </c>
-      <c r="E42">
-        <v>0.63949349450294501</v>
-      </c>
-      <c r="G42">
-        <v>2.5300000000000001E-3</v>
-      </c>
-      <c r="H42">
-        <v>1123.44834020284</v>
-      </c>
-      <c r="I42">
-        <v>1649.3609214502001</v>
-      </c>
-      <c r="J42">
-        <v>0.64833300369341396</v>
-      </c>
-      <c r="M42">
-        <v>330.28810317910802</v>
-      </c>
-      <c r="N42">
-        <v>1.0005738358896299</v>
-      </c>
-      <c r="Q42">
-        <v>38.654334573455898</v>
-      </c>
-      <c r="R42">
-        <v>7.5951487095680097</v>
-      </c>
-      <c r="S42">
-        <v>46.249483283023899</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>307</v>
-      </c>
-      <c r="C43">
-        <v>1453.7347441014699</v>
-      </c>
-      <c r="D43">
-        <v>19266.9437490862</v>
-      </c>
-      <c r="E43">
-        <v>0.64112378956535598</v>
-      </c>
-      <c r="G43">
-        <v>2.2300000000000002E-3</v>
-      </c>
-      <c r="H43">
-        <v>1123.4587257773101</v>
-      </c>
-      <c r="I43">
-        <v>1705.4525793520199</v>
-      </c>
-      <c r="J43">
-        <v>0.64411186780824703</v>
-      </c>
-      <c r="M43">
-        <v>330.27601832415201</v>
-      </c>
-      <c r="N43">
-        <v>1.0006104470542601</v>
-      </c>
-      <c r="Q43">
-        <v>34.920998219595504</v>
-      </c>
-      <c r="R43">
-        <v>7.3707006100401697</v>
-      </c>
-      <c r="S43">
-        <v>42.291698829635699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C44">
-        <v>1453.7390083159901</v>
-      </c>
-      <c r="D44">
-        <v>18987.490107053</v>
-      </c>
-      <c r="E44">
-        <v>0.64037450369209004</v>
-      </c>
-      <c r="G44">
-        <v>2.5500000000000002E-3</v>
-      </c>
-      <c r="H44">
-        <v>1123.4586802487499</v>
-      </c>
-      <c r="I44">
-        <v>1635.1277913087199</v>
-      </c>
-      <c r="J44">
-        <v>0.65140149697413596</v>
-      </c>
-      <c r="M44">
-        <v>330.28032806724201</v>
-      </c>
-      <c r="N44">
-        <v>1.0005973903457801</v>
-      </c>
-      <c r="Q44">
-        <v>39.181498936970101</v>
-      </c>
-      <c r="R44">
-        <v>6.0025135286540303</v>
-      </c>
-      <c r="S44">
-        <v>45.1840124656241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>309</v>
-      </c>
-      <c r="C45">
-        <v>1453.73959360048</v>
-      </c>
-      <c r="D45">
-        <v>19030.553096007701</v>
-      </c>
-      <c r="E45">
-        <v>0.63811264345643903</v>
-      </c>
-      <c r="G45">
-        <v>2.4499999999999999E-3</v>
-      </c>
-      <c r="H45">
-        <v>1123.4550783255199</v>
-      </c>
-      <c r="I45">
-        <v>1679.07273358921</v>
-      </c>
-      <c r="J45">
-        <v>0.63289869438738799</v>
-      </c>
-      <c r="M45">
-        <v>330.28451527496497</v>
-      </c>
-      <c r="N45">
-        <v>1.00058470519426</v>
-      </c>
-      <c r="Q45">
-        <v>37.778031863023102</v>
-      </c>
-      <c r="R45">
-        <v>7.3418379912180498</v>
-      </c>
-      <c r="S45">
-        <v>45.119869854241202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>310</v>
-      </c>
-      <c r="C46">
-        <v>1453.73236740165</v>
-      </c>
-      <c r="D46">
-        <v>19168.954570538699</v>
-      </c>
-      <c r="E46">
-        <v>0.63867279932813803</v>
-      </c>
-      <c r="G46">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H46">
-        <v>1123.4635479164499</v>
-      </c>
-      <c r="I46">
-        <v>1640.1258549470001</v>
-      </c>
-      <c r="J46">
-        <v>0.64510133201360698</v>
-      </c>
-      <c r="M46">
-        <v>330.26881948519599</v>
-      </c>
-      <c r="N46">
-        <v>1.00063225726776</v>
-      </c>
-      <c r="Q46">
-        <v>38.875795179015398</v>
-      </c>
-      <c r="R46">
-        <v>6.1467842913458703</v>
-      </c>
-      <c r="S46">
-        <v>45.0225794703613</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>311</v>
-      </c>
-      <c r="C47">
-        <v>1453.73982212479</v>
-      </c>
-      <c r="D47">
-        <v>19165.781874832501</v>
-      </c>
-      <c r="E47">
-        <v>0.638951305910893</v>
-      </c>
-      <c r="G47">
-        <v>2.5200000000000001E-3</v>
-      </c>
-      <c r="H47">
-        <v>1123.4607984873601</v>
-      </c>
-      <c r="I47">
-        <v>1641.1499747389701</v>
-      </c>
-      <c r="J47">
-        <v>0.64219857940887803</v>
-      </c>
-      <c r="M47">
-        <v>330.27902363743601</v>
-      </c>
-      <c r="N47">
-        <v>1.0006013421833699</v>
-      </c>
-      <c r="Q47">
-        <v>38.617482827118103</v>
-      </c>
-      <c r="R47">
-        <v>6.4049024925918001</v>
-      </c>
-      <c r="S47">
-        <v>45.022385319709898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>312</v>
-      </c>
-      <c r="C48">
-        <v>1453.7386995506299</v>
-      </c>
-      <c r="D48">
-        <v>19017.228540792799</v>
-      </c>
-      <c r="E48">
-        <v>0.64385499590693596</v>
-      </c>
-      <c r="G48">
-        <v>2.5200000000000001E-3</v>
-      </c>
-      <c r="H48">
-        <v>1123.46813471071</v>
-      </c>
-      <c r="I48">
-        <v>1651.91094957102</v>
-      </c>
-      <c r="J48">
-        <v>0.64428159286251296</v>
-      </c>
-      <c r="M48">
-        <v>330.27056483991902</v>
-      </c>
-      <c r="N48">
-        <v>1.00062696930564</v>
-      </c>
-      <c r="Q48">
-        <v>37.963146945935897</v>
-      </c>
-      <c r="R48">
-        <v>5.6435455922727504</v>
-      </c>
-      <c r="S48">
-        <v>43.606692538208598</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>313</v>
-      </c>
-      <c r="C49">
-        <v>1453.73243010943</v>
-      </c>
-      <c r="D49">
-        <v>19437.9234748815</v>
-      </c>
-      <c r="E49">
-        <v>0.63988567915415095</v>
-      </c>
-      <c r="G49">
-        <v>2.2699999999999999E-3</v>
-      </c>
-      <c r="H49">
-        <v>1123.4613044837099</v>
-      </c>
-      <c r="I49">
-        <v>1625.02566653755</v>
-      </c>
-      <c r="J49">
-        <v>0.63763015703025405</v>
-      </c>
-      <c r="M49">
-        <v>330.271125625727</v>
-      </c>
-      <c r="N49">
-        <v>1.0006252702851699</v>
-      </c>
-      <c r="Q49">
-        <v>35.320119705714603</v>
-      </c>
-      <c r="R49">
-        <v>6.9272222683294302</v>
-      </c>
-      <c r="S49">
-        <v>42.247341974044097</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50">
-        <v>1453.7344896217801</v>
-      </c>
-      <c r="D50">
-        <v>19139.660941352999</v>
-      </c>
-      <c r="E50">
-        <v>0.63889220408073899</v>
-      </c>
-      <c r="G50">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="H50">
-        <v>1123.4567522483601</v>
-      </c>
-      <c r="I50">
-        <v>1707.2018072471601</v>
-      </c>
-      <c r="J50">
-        <v>0.63956271127674602</v>
-      </c>
-      <c r="M50">
-        <v>330.27773737342301</v>
-      </c>
-      <c r="N50">
-        <v>1.0006052390173099</v>
-      </c>
-      <c r="Q50">
-        <v>36.082459057361497</v>
-      </c>
-      <c r="R50">
-        <v>6.7676282203720604</v>
-      </c>
-      <c r="S50">
-        <v>42.8500872777335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>315</v>
-      </c>
-      <c r="C51">
-        <v>1453.7369493721001</v>
-      </c>
-      <c r="D51">
-        <v>19613.020777135702</v>
-      </c>
-      <c r="E51">
-        <v>0.63877864770713499</v>
-      </c>
-      <c r="G51">
-        <v>2.5899999999999999E-3</v>
-      </c>
-      <c r="H51">
-        <v>1123.46282801027</v>
-      </c>
-      <c r="I51">
-        <v>1723.97701376124</v>
-      </c>
-      <c r="J51">
-        <v>0.63502870788535504</v>
-      </c>
-      <c r="M51">
-        <v>330.27412136182897</v>
-      </c>
-      <c r="N51">
-        <v>1.00061619416006</v>
-      </c>
-      <c r="Q51">
-        <v>40.5708239604025</v>
-      </c>
-      <c r="R51">
-        <v>6.0391544433859998</v>
-      </c>
-      <c r="S51">
-        <v>46.609978403788503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>316</v>
-      </c>
-      <c r="C52">
-        <v>1453.73596990951</v>
-      </c>
-      <c r="D52">
-        <v>19271.8336156242</v>
-      </c>
-      <c r="E52">
-        <v>0.64331331662167601</v>
-      </c>
-      <c r="G52">
-        <v>2.31E-3</v>
-      </c>
-      <c r="H52">
-        <v>1123.45879787892</v>
-      </c>
-      <c r="I52">
-        <v>1719.6553290356801</v>
-      </c>
-      <c r="J52">
-        <v>0.63664521151934705</v>
-      </c>
-      <c r="M52">
-        <v>330.277172030592</v>
-      </c>
-      <c r="N52">
-        <v>1.0006069517756999</v>
-      </c>
-      <c r="Q52">
-        <v>35.636653435042199</v>
-      </c>
-      <c r="R52">
-        <v>5.8797923819587599</v>
-      </c>
-      <c r="S52">
-        <v>41.516445817000999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>317</v>
-      </c>
-      <c r="C53">
-        <v>1453.7340505396901</v>
-      </c>
-      <c r="D53">
-        <v>19579.983213474501</v>
-      </c>
-      <c r="E53">
-        <v>0.64437457958032895</v>
-      </c>
-      <c r="G53">
-        <v>2.4599999999999999E-3</v>
-      </c>
-      <c r="H53">
-        <v>1123.46825725648</v>
-      </c>
-      <c r="I53">
-        <v>1726.60105953947</v>
-      </c>
-      <c r="J53">
-        <v>0.65236477408330895</v>
-      </c>
-      <c r="M53">
-        <v>330.265793283216</v>
-      </c>
-      <c r="N53">
-        <v>1.0006414259899901</v>
-      </c>
-      <c r="Q53">
-        <v>37.960770992154998</v>
-      </c>
-      <c r="R53">
-        <v>5.71590718837599</v>
-      </c>
-      <c r="S53">
-        <v>43.676678180530999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>318</v>
-      </c>
-      <c r="C54">
-        <v>1453.73314709901</v>
-      </c>
-      <c r="D54">
-        <v>19406.0989709237</v>
-      </c>
-      <c r="E54">
-        <v>0.64097542517258599</v>
-      </c>
-      <c r="G54">
-        <v>2.4199999999999998E-3</v>
-      </c>
-      <c r="H54">
-        <v>1123.45583245424</v>
-      </c>
-      <c r="I54">
-        <v>1661.97721229016</v>
-      </c>
-      <c r="J54">
-        <v>0.62900218692215104</v>
-      </c>
-      <c r="M54">
-        <v>330.277314644765</v>
-      </c>
-      <c r="N54">
-        <v>1.00060651971232</v>
-      </c>
-      <c r="Q54">
-        <v>37.244596975541</v>
-      </c>
-      <c r="R54">
-        <v>6.7523455952321196</v>
-      </c>
-      <c r="S54">
-        <v>43.996942570773101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C55">
-        <v>1453.7315037850799</v>
-      </c>
-      <c r="D55">
-        <v>19630.124279289001</v>
-      </c>
-      <c r="E55">
-        <v>0.63699655299356195</v>
-      </c>
-      <c r="G55">
-        <v>2.5799999999999998E-3</v>
-      </c>
-      <c r="H55">
-        <v>1123.44890694023</v>
-      </c>
-      <c r="I55">
-        <v>1700.82508448712</v>
-      </c>
-      <c r="J55">
-        <v>0.64665488144973804</v>
-      </c>
-      <c r="M55">
-        <v>330.28259684484402</v>
-      </c>
-      <c r="N55">
-        <v>1.0005905170410101</v>
-      </c>
-      <c r="Q55">
-        <v>39.7804367738689</v>
-      </c>
-      <c r="R55">
-        <v>6.3823831704828597</v>
-      </c>
-      <c r="S55">
-        <v>46.162819944351703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>320</v>
-      </c>
-      <c r="C56">
-        <v>1453.7333952439601</v>
-      </c>
-      <c r="D56">
-        <v>19420.486855999799</v>
-      </c>
-      <c r="E56">
-        <v>0.63577065709563796</v>
-      </c>
-      <c r="G56">
-        <v>2.4399999999999999E-3</v>
-      </c>
-      <c r="H56">
-        <v>1123.4680287793799</v>
-      </c>
-      <c r="I56">
-        <v>1674.3369117012501</v>
-      </c>
-      <c r="J56">
-        <v>0.64017816434602304</v>
-      </c>
-      <c r="M56">
-        <v>330.26536646457498</v>
-      </c>
-      <c r="N56">
-        <v>1.00064271916952</v>
-      </c>
-      <c r="Q56">
-        <v>38.319337524142</v>
-      </c>
-      <c r="R56">
-        <v>6.5881396565828902</v>
-      </c>
-      <c r="S56">
-        <v>44.907477180724896</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>321</v>
-      </c>
-      <c r="C57">
-        <v>1453.74111866716</v>
-      </c>
-      <c r="D57">
-        <v>19094.7761113983</v>
-      </c>
-      <c r="E57">
-        <v>0.63634794416281004</v>
-      </c>
-      <c r="G57">
-        <v>2.33E-3</v>
-      </c>
-      <c r="H57">
-        <v>1123.4556380669201</v>
-      </c>
-      <c r="I57">
-        <v>1565.98169309983</v>
-      </c>
-      <c r="J57">
-        <v>0.63090351023204905</v>
-      </c>
-      <c r="M57">
-        <v>330.28548060024201</v>
-      </c>
-      <c r="N57">
-        <v>1.0005817807856401</v>
-      </c>
-      <c r="Q57">
-        <v>37.126223278621801</v>
-      </c>
-      <c r="R57">
-        <v>7.0092829050194903</v>
-      </c>
-      <c r="S57">
-        <v>44.135506183641297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>263</v>
-      </c>
-      <c r="C58">
-        <v>1453.82413761764</v>
-      </c>
-      <c r="D58">
-        <v>21207.703030952202</v>
-      </c>
-      <c r="E58">
-        <v>0.62033078824402599</v>
-      </c>
-      <c r="G58">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="H58">
-        <v>1123.5685488029101</v>
-      </c>
-      <c r="I58">
-        <v>1446.80382336654</v>
-      </c>
-      <c r="J58">
-        <v>0.62898456930780899</v>
-      </c>
-      <c r="M58">
-        <v>330.25558881472898</v>
-      </c>
-      <c r="N58">
-        <v>1.00067234450959</v>
-      </c>
-      <c r="Q58">
-        <v>41.666017024892398</v>
-      </c>
-      <c r="R58">
-        <v>6.1366342746117502</v>
-      </c>
-      <c r="S58">
-        <v>47.802651299504198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>322</v>
-      </c>
-      <c r="C59">
-        <v>1453.7551126670201</v>
-      </c>
-      <c r="D59">
-        <v>21055.084609292699</v>
-      </c>
-      <c r="E59">
-        <v>0.63165551254649199</v>
-      </c>
-      <c r="G59">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="H59">
-        <v>1123.47325746463</v>
-      </c>
-      <c r="I59">
-        <v>1624.15117047941</v>
-      </c>
-      <c r="J59">
-        <v>0.60518042394027904</v>
-      </c>
-      <c r="M59">
-        <v>330.28185520239498</v>
-      </c>
-      <c r="N59">
-        <v>1.0005927638504899</v>
-      </c>
-      <c r="Q59">
-        <v>42.1618372786726</v>
-      </c>
-      <c r="R59">
-        <v>6.2047840387203399</v>
-      </c>
-      <c r="S59">
-        <v>48.366621317392898</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>323</v>
-      </c>
-      <c r="C60">
-        <v>1453.7606406208099</v>
-      </c>
-      <c r="D60">
-        <v>20116.481766843601</v>
-      </c>
-      <c r="E60">
-        <v>0.62953964332397605</v>
-      </c>
-      <c r="G60">
-        <v>2.3700000000000001E-3</v>
-      </c>
-      <c r="H60">
-        <v>1123.4836625115699</v>
-      </c>
-      <c r="I60">
-        <v>1621.7111123760701</v>
-      </c>
-      <c r="J60">
-        <v>0.63280888326220197</v>
-      </c>
-      <c r="M60">
-        <v>330.27697810924599</v>
-      </c>
-      <c r="N60">
-        <v>1.00060753927971</v>
-      </c>
-      <c r="Q60">
-        <v>41.000966811269699</v>
-      </c>
-      <c r="R60">
-        <v>5.84260786029279</v>
-      </c>
-      <c r="S60">
-        <v>46.8435746715625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>324</v>
-      </c>
-      <c r="C61">
-        <v>1453.7729853460801</v>
-      </c>
-      <c r="D61">
-        <v>19064.1934791969</v>
-      </c>
-      <c r="E61">
-        <v>0.63576542210919196</v>
-      </c>
-      <c r="G61">
-        <v>2.1900000000000001E-3</v>
-      </c>
-      <c r="H61">
-        <v>1123.50100874185</v>
-      </c>
-      <c r="I61">
-        <v>1465.32023187816</v>
-      </c>
-      <c r="J61">
-        <v>0.63774407409790701</v>
-      </c>
-      <c r="M61">
-        <v>330.271976604222</v>
-      </c>
-      <c r="N61">
-        <v>1.0006226920749499</v>
-      </c>
-      <c r="Q61">
-        <v>34.866346407661098</v>
-      </c>
-      <c r="R61">
-        <v>5.7993948337814896</v>
-      </c>
-      <c r="S61">
-        <v>40.665741241442603</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>325</v>
-      </c>
-      <c r="C62">
-        <v>1453.7810439203099</v>
-      </c>
-      <c r="D62">
-        <v>18754.5686092705</v>
-      </c>
-      <c r="E62">
-        <v>0.63147940672024205</v>
-      </c>
-      <c r="G62">
-        <v>2.33E-3</v>
-      </c>
-      <c r="H62">
-        <v>1123.49460387049</v>
-      </c>
-      <c r="I62">
-        <v>1478.99006989382</v>
-      </c>
-      <c r="J62">
-        <v>0.633102069411143</v>
-      </c>
-      <c r="M62">
-        <v>330.28644004982101</v>
-      </c>
-      <c r="N62">
-        <v>1.00057887419411</v>
-      </c>
-      <c r="Q62">
-        <v>35.588482088659099</v>
-      </c>
-      <c r="R62">
-        <v>5.97596211365643</v>
-      </c>
-      <c r="S62">
-        <v>41.564444202315499</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>326</v>
-      </c>
-      <c r="C63">
-        <v>1453.7814912794599</v>
-      </c>
-      <c r="D63">
-        <v>18682.131946299301</v>
-      </c>
-      <c r="E63">
-        <v>0.63475155331918298</v>
-      </c>
-      <c r="G63">
-        <v>2.2699999999999999E-3</v>
-      </c>
-      <c r="H63">
-        <v>1123.4952909962301</v>
-      </c>
-      <c r="I63">
-        <v>1417.8028418184999</v>
-      </c>
-      <c r="J63">
-        <v>0.64262207064351695</v>
-      </c>
-      <c r="M63">
-        <v>330.28620028323201</v>
-      </c>
-      <c r="N63">
-        <v>1.0005796005501699</v>
-      </c>
-      <c r="Q63">
-        <v>34.859170697001097</v>
-      </c>
-      <c r="R63">
-        <v>5.8148892034605399</v>
-      </c>
-      <c r="S63">
-        <v>40.6740599004616</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>327</v>
-      </c>
-      <c r="C64">
-        <v>1453.78311456815</v>
-      </c>
-      <c r="D64">
-        <v>18883.5395588875</v>
-      </c>
-      <c r="E64">
-        <v>0.62879411222854598</v>
-      </c>
-      <c r="G64">
-        <v>2.2899999999999999E-3</v>
-      </c>
-      <c r="H64">
-        <v>1123.4873650136999</v>
-      </c>
-      <c r="I64">
-        <v>1430.8063111067399</v>
-      </c>
-      <c r="J64">
-        <v>0.64149335274922803</v>
-      </c>
-      <c r="M64">
-        <v>330.29574955444502</v>
-      </c>
-      <c r="N64">
-        <v>1.00055067251828</v>
-      </c>
-      <c r="Q64">
-        <v>36.927089353988798</v>
-      </c>
-      <c r="R64">
-        <v>6.8499102906845701</v>
-      </c>
-      <c r="S64">
-        <v>43.776999644673403</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>328</v>
-      </c>
-      <c r="C65">
-        <v>1453.7869887793299</v>
-      </c>
-      <c r="D65">
-        <v>18861.889901161801</v>
-      </c>
-      <c r="E65">
-        <v>0.63014612411180504</v>
-      </c>
-      <c r="G65">
-        <v>2.3500000000000001E-3</v>
-      </c>
-      <c r="H65">
-        <v>1123.49210456433</v>
-      </c>
-      <c r="I65">
-        <v>1439.1155770824701</v>
-      </c>
-      <c r="J65">
-        <v>0.63624048086996399</v>
-      </c>
-      <c r="M65">
-        <v>330.29488421500599</v>
-      </c>
-      <c r="N65">
-        <v>1.0005532938606001</v>
-      </c>
-      <c r="Q65">
-        <v>36.592370848358698</v>
-      </c>
-      <c r="R65">
-        <v>5.8006900557482499</v>
-      </c>
-      <c r="S65">
-        <v>42.393060904106903</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>329</v>
-      </c>
-      <c r="C66">
-        <v>1453.78375010266</v>
-      </c>
-      <c r="D66">
-        <v>18630.316532999499</v>
-      </c>
-      <c r="E66">
-        <v>0.63345415176516295</v>
-      </c>
-      <c r="G66">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="H66">
-        <v>1123.5044341482701</v>
-      </c>
-      <c r="I66">
-        <v>1561.2667545023601</v>
-      </c>
-      <c r="J66">
-        <v>0.62560810501213004</v>
-      </c>
-      <c r="M66">
-        <v>330.27931595438997</v>
-      </c>
-      <c r="N66">
-        <v>1.00060045659132</v>
-      </c>
-      <c r="Q66">
-        <v>36.882496562780801</v>
-      </c>
-      <c r="R66">
-        <v>5.8748768862677396</v>
-      </c>
-      <c r="S66">
-        <v>42.757373449048501</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>265</v>
-      </c>
-      <c r="C67">
-        <v>1453.7813090549701</v>
-      </c>
-      <c r="D67">
-        <v>18572.5223759775</v>
-      </c>
-      <c r="E67">
-        <v>0.63029620951590803</v>
-      </c>
-      <c r="G67">
-        <v>2.3700000000000001E-3</v>
-      </c>
-      <c r="H67">
-        <v>1123.5074363756801</v>
-      </c>
-      <c r="I67">
-        <v>1606.68706550724</v>
-      </c>
-      <c r="J67">
-        <v>0.63629484410696602</v>
-      </c>
-      <c r="M67">
-        <v>330.27387267929203</v>
-      </c>
-      <c r="N67">
-        <v>1.0006169475825799</v>
-      </c>
-      <c r="Q67">
-        <v>36.954772569804497</v>
-      </c>
-      <c r="R67">
-        <v>6.0933226769025701</v>
-      </c>
-      <c r="S67">
-        <v>43.048095246707099</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68">
-        <v>1453.77677525372</v>
-      </c>
-      <c r="D68">
-        <v>18452.4575329045</v>
-      </c>
-      <c r="E68">
-        <v>0.63322420016894498</v>
-      </c>
-      <c r="G68">
-        <v>2.3400000000000001E-3</v>
-      </c>
-      <c r="H68">
-        <v>1123.4887999729599</v>
-      </c>
-      <c r="I68">
-        <v>1590.0472983802599</v>
-      </c>
-      <c r="J68">
-        <v>0.649853478121869</v>
-      </c>
-      <c r="M68">
-        <v>330.28797528076302</v>
-      </c>
-      <c r="N68">
-        <v>1.00057422334466</v>
-      </c>
-      <c r="Q68">
-        <v>36.4353693539543</v>
-      </c>
-      <c r="R68">
-        <v>6.7339811514685</v>
-      </c>
-      <c r="S68">
-        <v>43.169350505422798</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>269</v>
-      </c>
-      <c r="C69">
-        <v>1453.8285231709699</v>
-      </c>
-      <c r="D69">
-        <v>21691.2686900033</v>
-      </c>
-      <c r="E69">
-        <v>0.61843637418808095</v>
-      </c>
-      <c r="G69">
-        <v>2.3500000000000001E-3</v>
-      </c>
-      <c r="H69">
-        <v>1123.55453382729</v>
-      </c>
-      <c r="I69">
-        <v>1328.3003343248499</v>
-      </c>
-      <c r="J69">
-        <v>0.64869435085494698</v>
-      </c>
-      <c r="M69">
-        <v>330.27398934368102</v>
-      </c>
-      <c r="N69">
-        <v>1.00061659412948</v>
-      </c>
-      <c r="Q69">
-        <v>42.806480665821503</v>
-      </c>
-      <c r="R69">
-        <v>5.3354407952742999</v>
-      </c>
-      <c r="S69">
-        <v>48.141921461095798</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>271</v>
-      </c>
-      <c r="C70">
-        <v>1453.7377510691799</v>
-      </c>
-      <c r="D70">
-        <v>18697.036527156</v>
-      </c>
-      <c r="E70">
-        <v>0.63570607682884905</v>
-      </c>
-      <c r="G70">
-        <v>2.4399999999999999E-3</v>
-      </c>
-      <c r="H70">
-        <v>1123.46060638158</v>
-      </c>
-      <c r="I70">
-        <v>1655.9534790964401</v>
-      </c>
-      <c r="J70">
-        <v>0.63801545288851802</v>
-      </c>
-      <c r="M70">
-        <v>330.27714468760098</v>
-      </c>
-      <c r="N70">
-        <v>1.0006070346139699</v>
-      </c>
-      <c r="Q70">
-        <v>37.549213985019101</v>
-      </c>
-      <c r="R70">
-        <v>6.9382977729411701</v>
-      </c>
-      <c r="S70">
-        <v>44.487511757960299</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71">
-        <v>1453.73937644692</v>
-      </c>
-      <c r="D71">
-        <v>18288.456536455498</v>
-      </c>
-      <c r="E71">
-        <v>0.63784060099718198</v>
-      </c>
-      <c r="G71">
-        <v>2.5400000000000002E-3</v>
-      </c>
-      <c r="H71">
-        <v>1123.4621414693399</v>
-      </c>
-      <c r="I71">
-        <v>1676.1680320453499</v>
-      </c>
-      <c r="J71">
-        <v>0.64277642929078405</v>
-      </c>
-      <c r="M71">
-        <v>330.277234977577</v>
-      </c>
-      <c r="N71">
-        <v>1.0006067610717</v>
-      </c>
-      <c r="Q71">
-        <v>37.938537559300798</v>
-      </c>
-      <c r="R71">
-        <v>6.3294007731433304</v>
-      </c>
-      <c r="S71">
-        <v>44.267938332444103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72">
-        <v>1453.82232508842</v>
-      </c>
-      <c r="D72">
-        <v>20320.5800823297</v>
-      </c>
-      <c r="E72">
-        <v>0.62286206496597796</v>
-      </c>
-      <c r="G72">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="H72">
-        <v>1123.5411425806201</v>
-      </c>
-      <c r="I72">
-        <v>1618.82296539914</v>
-      </c>
-      <c r="J72">
-        <v>0.63975050531363897</v>
-      </c>
-      <c r="M72">
-        <v>330.28118250778999</v>
-      </c>
-      <c r="N72">
-        <v>1.0005948017908499</v>
-      </c>
-      <c r="Q72">
-        <v>38.411642256098197</v>
-      </c>
-      <c r="R72">
-        <v>6.8453097590476801</v>
-      </c>
-      <c r="S72">
-        <v>45.256952015145899</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>279</v>
-      </c>
-      <c r="C73">
-        <v>1453.8168354265099</v>
-      </c>
-      <c r="D73">
-        <v>19843.746178823301</v>
-      </c>
-      <c r="E73">
-        <v>0.619785512453083</v>
-      </c>
-      <c r="G73">
-        <v>2.5100000000000001E-3</v>
-      </c>
-      <c r="H73">
-        <v>1123.55121898468</v>
-      </c>
-      <c r="I73">
-        <v>1499.9022211772401</v>
-      </c>
-      <c r="J73">
-        <v>0.63642140599554298</v>
-      </c>
-      <c r="M73">
-        <v>330.26561644182999</v>
-      </c>
-      <c r="N73">
-        <v>1.0006419617854401</v>
-      </c>
-      <c r="Q73">
-        <v>41.206003422728401</v>
-      </c>
-      <c r="R73">
-        <v>5.9380160702546503</v>
-      </c>
-      <c r="S73">
-        <v>47.144019492983098</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>281</v>
-      </c>
-      <c r="C74">
-        <v>1453.8171740584801</v>
-      </c>
-      <c r="D74">
-        <v>20547.5761623857</v>
-      </c>
-      <c r="E74">
-        <v>0.62227737416447404</v>
-      </c>
-      <c r="G74">
-        <v>2.6099999999999999E-3</v>
-      </c>
-      <c r="H74">
-        <v>1123.5423331513</v>
-      </c>
-      <c r="I74">
-        <v>1460.8460417927299</v>
-      </c>
-      <c r="J74">
-        <v>0.64390727473465803</v>
-      </c>
-      <c r="M74">
-        <v>330.27484090718099</v>
-      </c>
-      <c r="N74">
-        <v>1.00061401419161</v>
-      </c>
-      <c r="Q74">
-        <v>43.866419475809899</v>
-      </c>
-      <c r="R74">
-        <v>6.5892135503532199</v>
-      </c>
-      <c r="S74">
-        <v>50.455633026163099</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>283</v>
-      </c>
-      <c r="C75">
-        <v>1453.81464777734</v>
-      </c>
-      <c r="D75">
-        <v>20645.554833059701</v>
-      </c>
-      <c r="E75">
-        <v>0.62585695636843997</v>
-      </c>
-      <c r="G75">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="H75">
-        <v>1123.54597824807</v>
-      </c>
-      <c r="I75">
-        <v>1526.45995127419</v>
-      </c>
-      <c r="J75">
-        <v>0.61798874495757095</v>
-      </c>
-      <c r="M75">
-        <v>330.26866952926099</v>
-      </c>
-      <c r="N75">
-        <v>1.0006327115971001</v>
-      </c>
-      <c r="Q75">
-        <v>40.358106862802302</v>
-      </c>
-      <c r="R75">
-        <v>5.7064255626609297</v>
-      </c>
-      <c r="S75">
-        <v>46.064532425463199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>285</v>
-      </c>
-      <c r="C76">
-        <v>1453.80615171096</v>
-      </c>
-      <c r="D76">
-        <v>20375.293191526998</v>
-      </c>
-      <c r="E76">
-        <v>0.62478211619319901</v>
-      </c>
-      <c r="G76">
-        <v>2.5600000000000002E-3</v>
-      </c>
-      <c r="H76">
-        <v>1123.52818057848</v>
-      </c>
-      <c r="I76">
-        <v>1503.0530334707</v>
-      </c>
-      <c r="J76">
-        <v>0.63183220068940005</v>
-      </c>
-      <c r="M76">
-        <v>330.277971132473</v>
-      </c>
-      <c r="N76">
-        <v>1.0006045308243601</v>
-      </c>
-      <c r="Q76">
-        <v>43.538036262241597</v>
-      </c>
-      <c r="R76">
-        <v>6.7678545715738698</v>
-      </c>
-      <c r="S76">
-        <v>50.305890833815504</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>287</v>
-      </c>
-      <c r="C77">
-        <v>1453.8062071770901</v>
-      </c>
-      <c r="D77">
-        <v>20097.250525363001</v>
-      </c>
-      <c r="E77">
-        <v>0.626352209920644</v>
-      </c>
-      <c r="G77">
-        <v>2.4199999999999998E-3</v>
-      </c>
-      <c r="H77">
-        <v>1123.5254377226299</v>
-      </c>
-      <c r="I77">
-        <v>1555.36467193524</v>
-      </c>
-      <c r="J77">
-        <v>0.62751914823608701</v>
-      </c>
-      <c r="M77">
-        <v>330.28076945446298</v>
-      </c>
-      <c r="N77">
-        <v>1.0005960531474301</v>
-      </c>
-      <c r="Q77">
-        <v>41.310299573573801</v>
-      </c>
-      <c r="R77">
-        <v>6.70955107517399</v>
-      </c>
-      <c r="S77">
-        <v>48.019850648747799</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>289</v>
-      </c>
-      <c r="C78">
-        <v>1453.77221101229</v>
-      </c>
-      <c r="D78">
-        <v>21259.412705119299</v>
-      </c>
-      <c r="E78">
-        <v>0.62871147525989601</v>
-      </c>
-      <c r="G78">
-        <v>2.3500000000000001E-3</v>
-      </c>
-      <c r="H78">
-        <v>1123.4881113486199</v>
-      </c>
-      <c r="I78">
-        <v>1619.0397158374001</v>
-      </c>
-      <c r="J78">
-        <v>0.63160047272424102</v>
-      </c>
-      <c r="M78">
-        <v>330.28409966366598</v>
-      </c>
-      <c r="N78">
-        <v>1.00058596427488</v>
-      </c>
-      <c r="Q78">
-        <v>43.378757957992498</v>
-      </c>
-      <c r="R78">
-        <v>6.9194800667086502</v>
-      </c>
-      <c r="S78">
-        <v>50.298238024701099</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C1ED6E-FCB5-4BA6-9F60-DBBEA88DDD92}">
-  <dimension ref="A1:Q78"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="35.453125" customWidth="1"/>
-    <col min="4" max="4" width="31.6328125" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="G1" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="H1" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="I1" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="K1" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="L1" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="M1" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="N1" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="O1" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="P1" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="Q1" t="s">
-        <v>193</v>
+        <v>306</v>
+      </c>
+      <c r="R1" t="s">
+        <v>307</v>
+      </c>
+      <c r="S1" t="s">
+        <v>308</v>
+      </c>
+      <c r="T1" t="s">
+        <v>309</v>
+      </c>
+      <c r="U1" t="s">
+        <v>310</v>
+      </c>
+      <c r="V1" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" t="s">
-        <v>333</v>
+        <v>133</v>
+      </c>
+      <c r="C2">
+        <v>102.727425322515</v>
+      </c>
+      <c r="D2">
+        <v>1286.71825544335</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>119.573725789164</v>
+      </c>
+      <c r="F2">
+        <v>1286.71825544335</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>154.419206887169</v>
       </c>
       <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="L2">
-        <v>90401</v>
+        <v>0.60660131329242095</v>
+      </c>
+      <c r="J2">
+        <v>2.2823358093998798</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1.31702774797126E-8</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1341</v>
-      </c>
-      <c r="N2" t="s">
-        <v>134</v>
+        <v>1389.4456807658701</v>
+      </c>
+      <c r="N2">
+        <v>195.199809473893</v>
+      </c>
+      <c r="O2">
+        <v>1389.4456807658701</v>
+      </c>
+      <c r="P2">
+        <v>241.58336288567199</v>
+      </c>
+      <c r="Q2">
+        <v>0.56750109339438803</v>
+      </c>
+      <c r="S2">
+        <v>2.0265931999723699</v>
+      </c>
+      <c r="T2">
+        <v>7.3817997474746294E-2</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" t="s">
-        <v>333</v>
+        <v>312</v>
+      </c>
+      <c r="C3">
+        <v>102.729331090076</v>
+      </c>
+      <c r="D3">
+        <v>1286.7141056750299</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>131.75151790706801</v>
+      </c>
+      <c r="F3">
+        <v>1286.7141056750299</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>174.26231447757399</v>
       </c>
       <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="L3">
-        <v>91109</v>
+        <v>0.62127751087438199</v>
+      </c>
+      <c r="J3">
+        <v>2.9244210066226302</v>
+      </c>
+      <c r="K3" s="11">
+        <v>6.7448347795817601E-8</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1341</v>
-      </c>
-      <c r="N3" t="s">
-        <v>135</v>
+        <v>1389.4434367650999</v>
+      </c>
+      <c r="N3">
+        <v>236.24596998730701</v>
+      </c>
+      <c r="O3">
+        <v>1389.4434367650999</v>
+      </c>
+      <c r="P3">
+        <v>293.38188838881899</v>
+      </c>
+      <c r="Q3">
+        <v>0.514046696956444</v>
+      </c>
+      <c r="S3">
+        <v>2.8129648385669301</v>
+      </c>
+      <c r="T3">
+        <v>0.36842107429285198</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" t="s">
-        <v>333</v>
+        <v>313</v>
+      </c>
+      <c r="C4">
+        <v>102.75767560719601</v>
+      </c>
+      <c r="D4">
+        <v>1286.68783874878</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>127.269559447528</v>
+      </c>
+      <c r="F4">
+        <v>1286.68783874878</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>161.49992734939099</v>
       </c>
       <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>224</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="L4">
-        <v>91722</v>
+        <v>0.59605396587368398</v>
+      </c>
+      <c r="J4">
+        <v>2.4236799087732401</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4.7404915548554502E-9</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1341</v>
-      </c>
-      <c r="N4" t="s">
-        <v>136</v>
+        <v>1389.4455143559701</v>
+      </c>
+      <c r="N4">
+        <v>212.81674789607601</v>
+      </c>
+      <c r="O4">
+        <v>1389.4455143559701</v>
+      </c>
+      <c r="P4">
+        <v>269.75574049756199</v>
+      </c>
+      <c r="Q4">
+        <v>0.56506075944053502</v>
+      </c>
+      <c r="S4">
+        <v>5.2910095595017896</v>
+      </c>
+      <c r="T4">
+        <v>0.15804043294961401</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" t="s">
-        <v>333</v>
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>102.728190833475</v>
+      </c>
+      <c r="D5">
+        <v>1286.70730083532</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>157.39374215120401</v>
+      </c>
+      <c r="F5">
+        <v>1286.70730083532</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>210.778870233395</v>
       </c>
       <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>239</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="L5">
-        <v>130021</v>
+        <v>0.62903873317024095</v>
+      </c>
+      <c r="J5">
+        <v>2.8952390300853801</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1.10434389688496E-7</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1341</v>
-      </c>
-      <c r="N5" t="s">
-        <v>122</v>
+        <v>1389.4354916687901</v>
+      </c>
+      <c r="N5">
+        <v>264.48568113779402</v>
+      </c>
+      <c r="O5">
+        <v>1389.4354916687901</v>
+      </c>
+      <c r="P5">
+        <v>322.81858317215398</v>
+      </c>
+      <c r="Q5">
+        <v>0.57331612111085195</v>
+      </c>
+      <c r="S5">
+        <v>2.8849133618676301</v>
+      </c>
+      <c r="T5" s="11">
+        <v>9.3465907236023306E-10</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D6" t="s">
-        <v>333</v>
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>102.74074608955701</v>
+      </c>
+      <c r="D6">
+        <v>1286.6965291617901</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>183.27622956084099</v>
+      </c>
+      <c r="F6">
+        <v>1286.6965291617901</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>250.703563141942</v>
       </c>
       <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>239</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="L6">
-        <v>130460</v>
+        <v>0.60751052474059597</v>
+      </c>
+      <c r="J6">
+        <v>2.6975099402241902</v>
+      </c>
+      <c r="K6">
+        <v>0.16907573925204999</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1341</v>
-      </c>
-      <c r="N6" t="s">
-        <v>124</v>
+        <v>1389.43727525135</v>
+      </c>
+      <c r="N6">
+        <v>290.47013506978999</v>
+      </c>
+      <c r="O6">
+        <v>1389.43727525135</v>
+      </c>
+      <c r="P6">
+        <v>379.96688619702297</v>
+      </c>
+      <c r="Q6">
+        <v>0.58150986482279499</v>
+      </c>
+      <c r="S6">
+        <v>2.7254950892512402</v>
+      </c>
+      <c r="T6">
+        <v>0.16628240798119001</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7">
+        <v>102.759181175162</v>
+      </c>
+      <c r="D7">
+        <v>1286.68394551956</v>
+      </c>
+      <c r="E7">
+        <v>184.034093953423</v>
+      </c>
+      <c r="F7">
+        <v>1286.68394551956</v>
+      </c>
+      <c r="G7">
+        <v>242.33495488361399</v>
+      </c>
+      <c r="H7">
+        <v>0.61852259173109303</v>
+      </c>
+      <c r="J7">
+        <v>2.9882954808686901</v>
+      </c>
+      <c r="K7" s="11">
+        <v>6.3089533597349097E-12</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1389.4431266947199</v>
+      </c>
+      <c r="N7">
+        <v>302.99240042487099</v>
+      </c>
+      <c r="O7">
+        <v>1389.4431266947199</v>
+      </c>
+      <c r="P7">
+        <v>377.78815281798302</v>
+      </c>
+      <c r="Q7">
+        <v>0.58278589538247005</v>
+      </c>
+      <c r="S7">
+        <v>3.3564599288561001</v>
+      </c>
+      <c r="T7">
+        <v>1.5287276244049399E-2</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E7">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>45</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="L7">
-        <v>130872</v>
-      </c>
-      <c r="M7">
-        <v>1341</v>
-      </c>
-      <c r="N7" t="s">
-        <v>125</v>
+      <c r="C8">
+        <v>102.760689091936</v>
+      </c>
+      <c r="D8">
+        <v>1286.6753636121</v>
+      </c>
+      <c r="E8">
+        <v>220.62790969565299</v>
+      </c>
+      <c r="F8">
+        <v>1286.6753636121</v>
+      </c>
+      <c r="G8">
+        <v>287.68814551809697</v>
+      </c>
+      <c r="H8">
+        <v>0.60274220527576405</v>
+      </c>
+      <c r="J8">
+        <v>2.9582611559298502</v>
+      </c>
+      <c r="K8">
+        <v>4.9375681486687403E-2</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1389.4360527040401</v>
+      </c>
+      <c r="N8">
+        <v>348.60558960347498</v>
+      </c>
+      <c r="O8">
+        <v>1389.4360527040401</v>
+      </c>
+      <c r="P8">
+        <v>440.93557194911</v>
+      </c>
+      <c r="Q8">
+        <v>0.58388878414423895</v>
+      </c>
+      <c r="S8">
+        <v>3.2230455253921799</v>
+      </c>
+      <c r="T8">
+        <v>5.3455385352075897E-2</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E8">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>45</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>209</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="L8">
-        <v>131789</v>
-      </c>
-      <c r="M8">
-        <v>1341</v>
-      </c>
-      <c r="N8" t="s">
-        <v>127</v>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9">
+        <v>102.726082191876</v>
+      </c>
+      <c r="D9">
+        <v>1286.6910388578499</v>
+      </c>
+      <c r="E9">
+        <v>256.911938056189</v>
+      </c>
+      <c r="F9">
+        <v>1286.6910388578499</v>
+      </c>
+      <c r="G9">
+        <v>340.57894873243902</v>
+      </c>
+      <c r="H9">
+        <v>0.60170852753884896</v>
+      </c>
+      <c r="J9">
+        <v>2.2910540997308302</v>
+      </c>
+      <c r="K9">
+        <v>0.104528359806175</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1389.41712104973</v>
+      </c>
+      <c r="N9">
+        <v>403.27645864901399</v>
+      </c>
+      <c r="O9">
+        <v>1389.41712104973</v>
+      </c>
+      <c r="P9">
+        <v>520.89290402497204</v>
+      </c>
+      <c r="Q9">
+        <v>0.57976766613757902</v>
+      </c>
+      <c r="S9">
+        <v>2.2344572327972498</v>
+      </c>
+      <c r="T9">
+        <v>0.13778070630386999</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>45</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="L9">
-        <v>132250</v>
-      </c>
-      <c r="M9">
-        <v>1341</v>
-      </c>
-      <c r="N9" t="s">
-        <v>129</v>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10">
+        <v>102.734882836789</v>
+      </c>
+      <c r="D10">
+        <v>1286.6891503055001</v>
+      </c>
+      <c r="E10">
+        <v>247.35532511268701</v>
+      </c>
+      <c r="F10">
+        <v>1286.6891503055001</v>
+      </c>
+      <c r="G10">
+        <v>319.72798201834001</v>
+      </c>
+      <c r="H10">
+        <v>0.59243038626841704</v>
+      </c>
+      <c r="J10">
+        <v>3.4868218476695301</v>
+      </c>
+      <c r="K10">
+        <v>7.5220204190548104E-2</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1389.42403314229</v>
+      </c>
+      <c r="N10">
+        <v>385.124738164843</v>
+      </c>
+      <c r="O10">
+        <v>1389.42403314229</v>
+      </c>
+      <c r="P10">
+        <v>490.55251781401898</v>
+      </c>
+      <c r="Q10">
+        <v>0.58566162433195501</v>
+      </c>
+      <c r="S10">
+        <v>3.04662264271373</v>
+      </c>
+      <c r="T10">
+        <v>6.5553005231049497E-2</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>45</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>209</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="L10">
-        <v>132712</v>
-      </c>
-      <c r="M10">
-        <v>1341</v>
-      </c>
-      <c r="N10" t="s">
-        <v>130</v>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11">
+        <v>102.74697393650401</v>
+      </c>
+      <c r="D11">
+        <v>1286.6640061587</v>
+      </c>
+      <c r="E11">
+        <v>372.146576186723</v>
+      </c>
+      <c r="F11">
+        <v>1286.6640061587</v>
+      </c>
+      <c r="G11">
+        <v>502.53017978508399</v>
+      </c>
+      <c r="H11">
+        <v>0.60825380812500196</v>
+      </c>
+      <c r="J11">
+        <v>2.40947501072259</v>
+      </c>
+      <c r="K11">
+        <v>0.12733002284265399</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1389.4109800952101</v>
+      </c>
+      <c r="N11">
+        <v>579.67254976866298</v>
+      </c>
+      <c r="O11">
+        <v>1389.4109800952101</v>
+      </c>
+      <c r="P11">
+        <v>765.30539294079597</v>
+      </c>
+      <c r="Q11">
+        <v>0.58113254401836401</v>
+      </c>
+      <c r="S11">
+        <v>2.76387216579172</v>
+      </c>
+      <c r="T11">
+        <v>0.19513985101336701</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11">
-        <v>29</v>
-      </c>
-      <c r="G11">
-        <v>45</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>209</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="L11">
-        <v>133161</v>
-      </c>
-      <c r="M11">
-        <v>1341</v>
-      </c>
-      <c r="N11" t="s">
-        <v>132</v>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12">
+        <v>102.758725919225</v>
+      </c>
+      <c r="D12">
+        <v>1286.65268864008</v>
+      </c>
+      <c r="E12">
+        <v>519.212987615977</v>
+      </c>
+      <c r="F12">
+        <v>1286.65268864008</v>
+      </c>
+      <c r="G12">
+        <v>720.07921113313296</v>
+      </c>
+      <c r="H12">
+        <v>0.59951922648050604</v>
+      </c>
+      <c r="J12">
+        <v>3.1056407859627102</v>
+      </c>
+      <c r="K12">
+        <v>0.247247297621107</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1389.4114145593001</v>
+      </c>
+      <c r="N12">
+        <v>792.79109218237204</v>
+      </c>
+      <c r="O12">
+        <v>1389.4114145593001</v>
+      </c>
+      <c r="P12">
+        <v>1051.2939939006401</v>
+      </c>
+      <c r="Q12">
+        <v>0.58664879007421999</v>
+      </c>
+      <c r="S12">
+        <v>3.2085972416533601</v>
+      </c>
+      <c r="T12">
+        <v>0.180445588348735</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12">
-        <v>28</v>
-      </c>
-      <c r="G12">
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>239</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="L12">
-        <v>47384</v>
-      </c>
-      <c r="M12">
-        <v>1341</v>
-      </c>
-      <c r="N12" t="s">
-        <v>3</v>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13">
+        <v>102.75386074222</v>
+      </c>
+      <c r="D13">
+        <v>1286.64395681971</v>
+      </c>
+      <c r="E13">
+        <v>645.98241464039802</v>
+      </c>
+      <c r="F13">
+        <v>1286.64395681971</v>
+      </c>
+      <c r="G13">
+        <v>909.192709128856</v>
+      </c>
+      <c r="H13">
+        <v>0.61545521970259398</v>
+      </c>
+      <c r="J13">
+        <v>3.3751869006479698</v>
+      </c>
+      <c r="K13">
+        <v>0.21423484129012299</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1389.39781756193</v>
+      </c>
+      <c r="N13">
+        <v>1012.51553855421</v>
+      </c>
+      <c r="O13">
+        <v>1389.39781756193</v>
+      </c>
+      <c r="P13">
+        <v>1353.6026974666599</v>
+      </c>
+      <c r="Q13">
+        <v>0.58605255263932199</v>
+      </c>
+      <c r="S13">
+        <v>3.6606314887620499</v>
+      </c>
+      <c r="T13">
+        <v>0.20700491690395501</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13">
-        <v>28</v>
-      </c>
-      <c r="G13">
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
-        <v>239</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="L13">
-        <v>47830</v>
-      </c>
-      <c r="M13">
-        <v>1341</v>
-      </c>
-      <c r="N13" t="s">
-        <v>4</v>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>102.751813048909</v>
+      </c>
+      <c r="D14">
+        <v>1286.6403404264199</v>
+      </c>
+      <c r="E14">
+        <v>752.924376698066</v>
+      </c>
+      <c r="F14">
+        <v>1286.6403404264199</v>
+      </c>
+      <c r="G14">
+        <v>1072.2070029081799</v>
+      </c>
+      <c r="H14">
+        <v>0.61427587533817996</v>
+      </c>
+      <c r="J14">
+        <v>4.0051812615570697</v>
+      </c>
+      <c r="K14">
+        <v>0.25336913358822699</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1389.3921534753299</v>
+      </c>
+      <c r="N14">
+        <v>1184.82150946506</v>
+      </c>
+      <c r="O14">
+        <v>1389.3921534753299</v>
+      </c>
+      <c r="P14">
+        <v>1603.26270636459</v>
+      </c>
+      <c r="Q14">
+        <v>0.58713846679177095</v>
+      </c>
+      <c r="S14">
+        <v>4.1735527867736302</v>
+      </c>
+      <c r="T14">
+        <v>0.236574912895748</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" t="s">
-        <v>333</v>
-      </c>
-      <c r="E14">
-        <v>28</v>
-      </c>
-      <c r="G14">
-        <v>45</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s">
-        <v>239</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="L14">
-        <v>48415</v>
-      </c>
-      <c r="M14">
-        <v>1341</v>
-      </c>
-      <c r="N14" t="s">
-        <v>5</v>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15">
+        <v>102.76014411073599</v>
+      </c>
+      <c r="D15">
+        <v>1286.6184154007401</v>
+      </c>
+      <c r="E15">
+        <v>871.80671407409</v>
+      </c>
+      <c r="F15">
+        <v>1286.6184154007401</v>
+      </c>
+      <c r="G15">
+        <v>1264.6428328827301</v>
+      </c>
+      <c r="H15">
+        <v>0.63164013976883004</v>
+      </c>
+      <c r="J15">
+        <v>4.2444806191114903</v>
+      </c>
+      <c r="K15">
+        <v>0.226439563124857</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1389.37855951147</v>
+      </c>
+      <c r="N15">
+        <v>1391.6003528036899</v>
+      </c>
+      <c r="O15">
+        <v>1389.37855951147</v>
+      </c>
+      <c r="P15">
+        <v>1897.6476677790699</v>
+      </c>
+      <c r="Q15">
+        <v>0.58295954613880396</v>
+      </c>
+      <c r="S15">
+        <v>4.7921699269807103</v>
+      </c>
+      <c r="T15">
+        <v>0.278830696001723</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>45</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>50</v>
-      </c>
-      <c r="J15" t="s">
-        <v>239</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="L15">
-        <v>48896</v>
-      </c>
-      <c r="M15">
-        <v>1341</v>
-      </c>
-      <c r="N15" t="s">
-        <v>7</v>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16">
+        <v>102.76899468003801</v>
+      </c>
+      <c r="D16">
+        <v>1286.6099306281001</v>
+      </c>
+      <c r="E16">
+        <v>1028.7000925166101</v>
+      </c>
+      <c r="F16">
+        <v>1286.6099306281001</v>
+      </c>
+      <c r="G16">
+        <v>1497.9024121243301</v>
+      </c>
+      <c r="H16">
+        <v>0.62359690327879502</v>
+      </c>
+      <c r="J16">
+        <v>4.9340572320548102</v>
+      </c>
+      <c r="K16">
+        <v>0.27380824431005502</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1389.37892530814</v>
+      </c>
+      <c r="N16">
+        <v>1592.4706648778799</v>
+      </c>
+      <c r="O16">
+        <v>1389.37892530814</v>
+      </c>
+      <c r="P16">
+        <v>2183.3427910413998</v>
+      </c>
+      <c r="Q16">
+        <v>0.58999855121479605</v>
+      </c>
+      <c r="S16">
+        <v>5.2950788479367104</v>
+      </c>
+      <c r="T16">
+        <v>0.26015530504182299</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" t="s">
-        <v>333</v>
-      </c>
-      <c r="E16">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>45</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>50</v>
-      </c>
-      <c r="J16" t="s">
-        <v>239</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="L16">
-        <v>49329</v>
-      </c>
-      <c r="M16">
-        <v>1341</v>
-      </c>
-      <c r="N16" t="s">
-        <v>8</v>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>102.771317953433</v>
+      </c>
+      <c r="D17">
+        <v>1286.59811064016</v>
+      </c>
+      <c r="E17">
+        <v>1088.48861644607</v>
+      </c>
+      <c r="F17">
+        <v>1286.59811064016</v>
+      </c>
+      <c r="G17">
+        <v>1597.3903787418601</v>
+      </c>
+      <c r="H17">
+        <v>0.63226837145118198</v>
+      </c>
+      <c r="J17">
+        <v>5.3812701825518303</v>
+      </c>
+      <c r="K17">
+        <v>0.25679067763208002</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1389.3694285936001</v>
+      </c>
+      <c r="N17">
+        <v>1734.3072187058799</v>
+      </c>
+      <c r="O17">
+        <v>1389.3694285936001</v>
+      </c>
+      <c r="P17">
+        <v>2395.5864193933498</v>
+      </c>
+      <c r="Q17">
+        <v>0.59483475891840099</v>
+      </c>
+      <c r="S17">
+        <v>5.9992230175533603</v>
+      </c>
+      <c r="T17">
+        <v>0.25812539210334801</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" t="s">
-        <v>333</v>
-      </c>
-      <c r="E17">
-        <v>28</v>
-      </c>
-      <c r="G17">
-        <v>45</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>50</v>
-      </c>
-      <c r="J17" t="s">
-        <v>239</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="L17">
-        <v>49783</v>
-      </c>
-      <c r="M17">
-        <v>1341</v>
-      </c>
-      <c r="N17" t="s">
-        <v>9</v>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18">
+        <v>102.781372761113</v>
+      </c>
+      <c r="D18">
+        <v>1286.5843765383499</v>
+      </c>
+      <c r="E18">
+        <v>1309.1745827416501</v>
+      </c>
+      <c r="F18">
+        <v>1286.5843765383499</v>
+      </c>
+      <c r="G18">
+        <v>1940.9726231858899</v>
+      </c>
+      <c r="H18">
+        <v>0.63804362667051095</v>
+      </c>
+      <c r="J18">
+        <v>5.8758225891479903</v>
+      </c>
+      <c r="K18">
+        <v>0.259971598474036</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1389.36574929946</v>
+      </c>
+      <c r="N18">
+        <v>2069.3727522985901</v>
+      </c>
+      <c r="O18">
+        <v>1389.36574929946</v>
+      </c>
+      <c r="P18">
+        <v>2862.4757726562402</v>
+      </c>
+      <c r="Q18">
+        <v>0.58907724508391102</v>
+      </c>
+      <c r="S18">
+        <v>6.9130801578318</v>
+      </c>
+      <c r="T18">
+        <v>0.28965549691111397</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
-        <v>285</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E18">
-        <v>28</v>
-      </c>
-      <c r="G18">
-        <v>45</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
-        <v>239</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="L18">
-        <v>50206</v>
-      </c>
-      <c r="M18">
-        <v>1341</v>
-      </c>
-      <c r="N18" t="s">
-        <v>10</v>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19">
+        <v>102.77722145691899</v>
+      </c>
+      <c r="D19">
+        <v>1286.56566923419</v>
+      </c>
+      <c r="E19">
+        <v>1583.67799384661</v>
+      </c>
+      <c r="F19">
+        <v>1286.56566923419</v>
+      </c>
+      <c r="G19">
+        <v>2352.9869352629598</v>
+      </c>
+      <c r="H19">
+        <v>0.63059418449706495</v>
+      </c>
+      <c r="J19">
+        <v>7.1884812071573698</v>
+      </c>
+      <c r="K19">
+        <v>0.29917150600354198</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1389.3428906911099</v>
+      </c>
+      <c r="N19">
+        <v>2497.5238230257801</v>
+      </c>
+      <c r="O19">
+        <v>1389.3428906911099</v>
+      </c>
+      <c r="P19">
+        <v>3484.102281429</v>
+      </c>
+      <c r="Q19">
+        <v>0.58621053044081095</v>
+      </c>
+      <c r="S19">
+        <v>9.0808835533285492</v>
+      </c>
+      <c r="T19">
+        <v>0.32694843507800903</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" t="s">
-        <v>333</v>
-      </c>
-      <c r="E19">
-        <v>28</v>
-      </c>
-      <c r="G19">
-        <v>45</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>50</v>
-      </c>
-      <c r="J19" t="s">
-        <v>239</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="L19">
-        <v>50617</v>
-      </c>
-      <c r="M19">
-        <v>1341</v>
-      </c>
-      <c r="N19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" t="s">
-        <v>333</v>
+        <v>101</v>
+      </c>
+      <c r="C20">
+        <v>102.80413098987199</v>
+      </c>
+      <c r="D20">
+        <v>1286.53605504149</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>1865.2392504035099</v>
+      </c>
+      <c r="F20">
+        <v>1286.53605504149</v>
       </c>
       <c r="G20">
-        <v>45</v>
+        <v>2819.1733193237401</v>
       </c>
       <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
-        <v>239</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="L20">
-        <v>51568</v>
+        <v>0.64381546071306806</v>
+      </c>
+      <c r="J20">
+        <v>9.0816048099508606</v>
+      </c>
+      <c r="K20">
+        <v>0.288975284670212</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1341</v>
-      </c>
-      <c r="N20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>322</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E21">
-        <v>28</v>
-      </c>
-      <c r="G21">
-        <v>45</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>50</v>
-      </c>
-      <c r="J21" t="s">
-        <v>239</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="L21">
-        <v>51961</v>
-      </c>
-      <c r="M21">
-        <v>1341</v>
-      </c>
-      <c r="N21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" t="s">
-        <v>333</v>
-      </c>
-      <c r="E22">
-        <v>28</v>
-      </c>
-      <c r="G22">
-        <v>45</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>50</v>
-      </c>
-      <c r="J22" t="s">
-        <v>239</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="L22">
-        <v>52619</v>
-      </c>
-      <c r="M22">
-        <v>1341</v>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" t="s">
-        <v>333</v>
-      </c>
-      <c r="E23">
-        <v>28</v>
-      </c>
-      <c r="G23">
-        <v>45</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>50</v>
-      </c>
-      <c r="J23" t="s">
-        <v>239</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="L23">
-        <v>53185</v>
-      </c>
-      <c r="M23">
-        <v>1341</v>
-      </c>
-      <c r="N23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>325</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" t="s">
-        <v>333</v>
-      </c>
-      <c r="E24">
-        <v>28</v>
-      </c>
-      <c r="G24">
-        <v>45</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>50</v>
-      </c>
-      <c r="J24" t="s">
-        <v>239</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="L24">
-        <v>53608</v>
-      </c>
-      <c r="M24">
-        <v>1341</v>
-      </c>
-      <c r="N24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" t="s">
-        <v>333</v>
-      </c>
-      <c r="E25">
-        <v>28</v>
-      </c>
-      <c r="G25">
-        <v>45</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>50</v>
-      </c>
-      <c r="J25" t="s">
-        <v>239</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="L25">
-        <v>54030</v>
-      </c>
-      <c r="M25">
-        <v>1341</v>
-      </c>
-      <c r="N25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>327</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" t="s">
-        <v>333</v>
-      </c>
-      <c r="E26">
-        <v>28</v>
-      </c>
-      <c r="G26">
-        <v>45</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>50</v>
-      </c>
-      <c r="J26" t="s">
-        <v>239</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="L26">
-        <v>54457</v>
-      </c>
-      <c r="M26">
-        <v>1341</v>
-      </c>
-      <c r="N26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>328</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" t="s">
-        <v>333</v>
-      </c>
-      <c r="E27">
-        <v>28</v>
-      </c>
-      <c r="G27">
-        <v>45</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>50</v>
-      </c>
-      <c r="J27" t="s">
-        <v>239</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="L27">
-        <v>54880</v>
-      </c>
-      <c r="M27">
-        <v>1341</v>
-      </c>
-      <c r="N27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>64</v>
-      </c>
-      <c r="B28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" t="s">
-        <v>333</v>
-      </c>
-      <c r="E28">
-        <v>28</v>
-      </c>
-      <c r="G28">
-        <v>45</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>20</v>
-      </c>
-      <c r="J28" t="s">
-        <v>239</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="L28">
-        <v>55399</v>
-      </c>
-      <c r="M28">
-        <v>1341</v>
-      </c>
-      <c r="N28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" t="s">
-        <v>333</v>
-      </c>
-      <c r="E29">
-        <v>28</v>
-      </c>
-      <c r="G29">
-        <v>45</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>50</v>
-      </c>
-      <c r="J29" t="s">
-        <v>239</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="L29">
-        <v>55893</v>
-      </c>
-      <c r="M29">
-        <v>1341</v>
-      </c>
-      <c r="N29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30">
-        <v>28</v>
-      </c>
-      <c r="G30">
-        <v>45</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30" t="s">
-        <v>239</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="L30">
-        <v>56368</v>
-      </c>
-      <c r="M30">
-        <v>1341</v>
-      </c>
-      <c r="N30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" t="s">
-        <v>333</v>
-      </c>
-      <c r="E31">
-        <v>28</v>
-      </c>
-      <c r="G31">
-        <v>45</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31" t="s">
-        <v>209</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="L31">
-        <v>64406</v>
-      </c>
-      <c r="M31">
-        <v>1341</v>
-      </c>
-      <c r="N31" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" t="s">
-        <v>333</v>
-      </c>
-      <c r="E32">
-        <v>28</v>
-      </c>
-      <c r="G32">
-        <v>45</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32" t="s">
-        <v>209</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="L32">
-        <v>65221</v>
-      </c>
-      <c r="M32">
-        <v>1341</v>
-      </c>
-      <c r="N32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33">
+        <v>1389.34018603136</v>
+      </c>
+      <c r="N20">
+        <v>2913.78834039611</v>
+      </c>
+      <c r="O20">
+        <v>1389.34018603136</v>
+      </c>
+      <c r="P20">
+        <v>4102.5332574054401</v>
+      </c>
+      <c r="Q20">
+        <v>0.59518635893834904</v>
+      </c>
+      <c r="S20">
+        <v>9.2898155864110894</v>
+      </c>
+      <c r="T20">
+        <v>0.31037000017813898</v>
+      </c>
+      <c r="U20" t="b">
         <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E33">
-        <v>28</v>
-      </c>
-      <c r="G33">
-        <v>45</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="J33" t="s">
-        <v>209</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="L33">
-        <v>65654</v>
-      </c>
-      <c r="M33">
-        <v>1341</v>
-      </c>
-      <c r="N33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" t="s">
-        <v>333</v>
-      </c>
-      <c r="E34">
-        <v>28</v>
-      </c>
-      <c r="G34">
-        <v>45</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34" t="s">
-        <v>209</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="L34">
-        <v>65926</v>
-      </c>
-      <c r="M34">
-        <v>1341</v>
-      </c>
-      <c r="N34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" t="s">
-        <v>333</v>
-      </c>
-      <c r="E35">
-        <v>28</v>
-      </c>
-      <c r="G35">
-        <v>45</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="J35" t="s">
-        <v>209</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="L35">
-        <v>66231</v>
-      </c>
-      <c r="M35">
-        <v>1341</v>
-      </c>
-      <c r="N35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" t="s">
-        <v>333</v>
-      </c>
-      <c r="E36">
-        <v>28</v>
-      </c>
-      <c r="G36">
-        <v>45</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>5</v>
-      </c>
-      <c r="J36" t="s">
-        <v>209</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L36">
-        <v>66493</v>
-      </c>
-      <c r="M36">
-        <v>1341</v>
-      </c>
-      <c r="N36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D37" t="s">
-        <v>333</v>
-      </c>
-      <c r="E37">
-        <v>28</v>
-      </c>
-      <c r="G37">
-        <v>45</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="J37" t="s">
-        <v>209</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="L37">
-        <v>66757</v>
-      </c>
-      <c r="M37">
-        <v>1341</v>
-      </c>
-      <c r="N37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" t="s">
-        <v>333</v>
-      </c>
-      <c r="E38">
-        <v>28</v>
-      </c>
-      <c r="G38">
-        <v>45</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38" t="s">
-        <v>209</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L38">
-        <v>67002</v>
-      </c>
-      <c r="M38">
-        <v>1341</v>
-      </c>
-      <c r="N38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>292</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" t="s">
-        <v>333</v>
-      </c>
-      <c r="E39">
-        <v>28</v>
-      </c>
-      <c r="G39">
-        <v>45</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>5</v>
-      </c>
-      <c r="J39" t="s">
-        <v>209</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="L39">
-        <v>67408</v>
-      </c>
-      <c r="M39">
-        <v>1341</v>
-      </c>
-      <c r="N39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" t="s">
-        <v>333</v>
-      </c>
-      <c r="E40">
-        <v>28</v>
-      </c>
-      <c r="G40">
-        <v>45</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>5</v>
-      </c>
-      <c r="J40" t="s">
-        <v>209</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="L40">
-        <v>67731</v>
-      </c>
-      <c r="M40">
-        <v>1341</v>
-      </c>
-      <c r="N40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D41" t="s">
-        <v>333</v>
-      </c>
-      <c r="E41">
-        <v>28</v>
-      </c>
-      <c r="G41">
-        <v>45</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>5</v>
-      </c>
-      <c r="J41" t="s">
-        <v>209</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L41">
-        <v>68094</v>
-      </c>
-      <c r="M41">
-        <v>1341</v>
-      </c>
-      <c r="N41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" t="s">
-        <v>333</v>
-      </c>
-      <c r="E42">
-        <v>28</v>
-      </c>
-      <c r="G42">
-        <v>45</v>
-      </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-      <c r="J42" t="s">
-        <v>224</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L42">
-        <v>68485</v>
-      </c>
-      <c r="M42">
-        <v>1341</v>
-      </c>
-      <c r="N42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>226</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" t="s">
-        <v>333</v>
-      </c>
-      <c r="E43">
-        <v>28</v>
-      </c>
-      <c r="G43">
-        <v>45</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43" t="s">
-        <v>209</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="L43">
-        <v>68930</v>
-      </c>
-      <c r="M43">
-        <v>1341</v>
-      </c>
-      <c r="N43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D44" t="s">
-        <v>333</v>
-      </c>
-      <c r="E44">
-        <v>28</v>
-      </c>
-      <c r="G44">
-        <v>45</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>5</v>
-      </c>
-      <c r="J44" t="s">
-        <v>209</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L44">
-        <v>69321</v>
-      </c>
-      <c r="M44">
-        <v>1341</v>
-      </c>
-      <c r="N44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" t="s">
-        <v>333</v>
-      </c>
-      <c r="E45">
-        <v>28</v>
-      </c>
-      <c r="G45">
-        <v>45</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="J45" t="s">
-        <v>209</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L45">
-        <v>69709</v>
-      </c>
-      <c r="M45">
-        <v>1341</v>
-      </c>
-      <c r="N45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" t="s">
-        <v>333</v>
-      </c>
-      <c r="E46">
-        <v>28</v>
-      </c>
-      <c r="G46">
-        <v>45</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
-      <c r="J46" t="s">
-        <v>209</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="L46">
-        <v>70265</v>
-      </c>
-      <c r="M46">
-        <v>1341</v>
-      </c>
-      <c r="N46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>14</v>
-      </c>
-      <c r="B47" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D47" t="s">
-        <v>333</v>
-      </c>
-      <c r="E47">
-        <v>28</v>
-      </c>
-      <c r="G47">
-        <v>45</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
-      <c r="J47" t="s">
-        <v>209</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L47">
-        <v>70624</v>
-      </c>
-      <c r="M47">
-        <v>1341</v>
-      </c>
-      <c r="N47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>15</v>
-      </c>
-      <c r="B48" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48" t="s">
-        <v>333</v>
-      </c>
-      <c r="E48">
-        <v>28</v>
-      </c>
-      <c r="G48">
-        <v>45</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>5</v>
-      </c>
-      <c r="J48" t="s">
-        <v>209</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="L48">
-        <v>71051</v>
-      </c>
-      <c r="M48">
-        <v>1341</v>
-      </c>
-      <c r="N48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>294</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D49" t="s">
-        <v>333</v>
-      </c>
-      <c r="E49">
-        <v>28</v>
-      </c>
-      <c r="G49">
-        <v>45</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>5</v>
-      </c>
-      <c r="J49" t="s">
-        <v>209</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="L49">
-        <v>71742</v>
-      </c>
-      <c r="M49">
-        <v>1341</v>
-      </c>
-      <c r="N49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>17</v>
-      </c>
-      <c r="B50" t="s">
-        <v>295</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" t="s">
-        <v>333</v>
-      </c>
-      <c r="E50">
-        <v>28</v>
-      </c>
-      <c r="G50">
-        <v>45</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="J50" t="s">
-        <v>209</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="L50">
-        <v>72204</v>
-      </c>
-      <c r="M50">
-        <v>1341</v>
-      </c>
-      <c r="N50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>18</v>
-      </c>
-      <c r="B51" t="s">
-        <v>296</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" t="s">
-        <v>333</v>
-      </c>
-      <c r="E51">
-        <v>28</v>
-      </c>
-      <c r="G51">
-        <v>45</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
-        <v>5</v>
-      </c>
-      <c r="J51" t="s">
-        <v>239</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="L51">
-        <v>72714</v>
-      </c>
-      <c r="M51">
-        <v>1341</v>
-      </c>
-      <c r="N51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>19</v>
-      </c>
-      <c r="B52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" t="s">
-        <v>333</v>
-      </c>
-      <c r="E52">
-        <v>28</v>
-      </c>
-      <c r="G52">
-        <v>45</v>
-      </c>
-      <c r="H52">
-        <v>3</v>
-      </c>
-      <c r="I52">
-        <v>5</v>
-      </c>
-      <c r="J52" t="s">
-        <v>239</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="L52">
-        <v>73220</v>
-      </c>
-      <c r="M52">
-        <v>1341</v>
-      </c>
-      <c r="N52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>238</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" t="s">
-        <v>333</v>
-      </c>
-      <c r="E53">
-        <v>28</v>
-      </c>
-      <c r="G53">
-        <v>45</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53">
-        <v>5</v>
-      </c>
-      <c r="J53" t="s">
-        <v>239</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L53">
-        <v>73808</v>
-      </c>
-      <c r="M53">
-        <v>1341</v>
-      </c>
-      <c r="N53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>21</v>
-      </c>
-      <c r="B54" t="s">
-        <v>241</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" t="s">
-        <v>333</v>
-      </c>
-      <c r="E54">
-        <v>28</v>
-      </c>
-      <c r="G54">
-        <v>45</v>
-      </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
-      <c r="I54">
-        <v>5</v>
-      </c>
-      <c r="J54" t="s">
-        <v>239</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="L54">
-        <v>74109</v>
-      </c>
-      <c r="M54">
-        <v>1341</v>
-      </c>
-      <c r="N54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>22</v>
-      </c>
-      <c r="B55" t="s">
-        <v>243</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" t="s">
-        <v>333</v>
-      </c>
-      <c r="E55">
-        <v>28</v>
-      </c>
-      <c r="G55">
-        <v>45</v>
-      </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
-      <c r="I55">
-        <v>5</v>
-      </c>
-      <c r="J55" t="s">
-        <v>239</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="L55">
-        <v>74464</v>
-      </c>
-      <c r="M55">
-        <v>1341</v>
-      </c>
-      <c r="N55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>23</v>
-      </c>
-      <c r="B56" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" t="s">
-        <v>333</v>
-      </c>
-      <c r="E56">
-        <v>28</v>
-      </c>
-      <c r="G56">
-        <v>45</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>239</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="L56">
-        <v>74756</v>
-      </c>
-      <c r="M56">
-        <v>1341</v>
-      </c>
-      <c r="N56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>24</v>
-      </c>
-      <c r="B57" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" t="s">
-        <v>333</v>
-      </c>
-      <c r="E57">
-        <v>28</v>
-      </c>
-      <c r="G57">
-        <v>45</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-      <c r="J57" t="s">
-        <v>239</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="L57">
-        <v>75105</v>
-      </c>
-      <c r="M57">
-        <v>1341</v>
-      </c>
-      <c r="N57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" t="s">
-        <v>333</v>
-      </c>
-      <c r="E58">
-        <v>28</v>
-      </c>
-      <c r="G58">
-        <v>45</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-      <c r="I58">
-        <v>5</v>
-      </c>
-      <c r="J58" t="s">
-        <v>239</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="L58">
-        <v>75899</v>
-      </c>
-      <c r="M58">
-        <v>1341</v>
-      </c>
-      <c r="N58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>26</v>
-      </c>
-      <c r="B59" t="s">
-        <v>298</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" t="s">
-        <v>333</v>
-      </c>
-      <c r="E59">
-        <v>28</v>
-      </c>
-      <c r="G59">
-        <v>45</v>
-      </c>
-      <c r="H59">
-        <v>3</v>
-      </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59" t="s">
-        <v>239</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="L59">
-        <v>76805</v>
-      </c>
-      <c r="M59">
-        <v>1341</v>
-      </c>
-      <c r="N59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>299</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D60" t="s">
-        <v>333</v>
-      </c>
-      <c r="E60">
-        <v>28</v>
-      </c>
-      <c r="G60">
-        <v>45</v>
-      </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-      <c r="J60" t="s">
-        <v>239</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="L60">
-        <v>77733</v>
-      </c>
-      <c r="M60">
-        <v>1341</v>
-      </c>
-      <c r="N60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>28</v>
-      </c>
-      <c r="B61" t="s">
-        <v>251</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" t="s">
-        <v>333</v>
-      </c>
-      <c r="E61">
-        <v>28</v>
-      </c>
-      <c r="G61">
-        <v>45</v>
-      </c>
-      <c r="H61">
-        <v>3</v>
-      </c>
-      <c r="I61">
-        <v>5</v>
-      </c>
-      <c r="J61" t="s">
-        <v>239</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="L61">
-        <v>78619</v>
-      </c>
-      <c r="M61">
-        <v>1341</v>
-      </c>
-      <c r="N61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>253</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" t="s">
-        <v>333</v>
-      </c>
-      <c r="E62">
-        <v>28</v>
-      </c>
-      <c r="G62">
-        <v>45</v>
-      </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
-      <c r="I62">
-        <v>5</v>
-      </c>
-      <c r="J62" t="s">
-        <v>239</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="L62">
-        <v>78968</v>
-      </c>
-      <c r="M62">
-        <v>1341</v>
-      </c>
-      <c r="N62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>30</v>
-      </c>
-      <c r="B63" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D63" t="s">
-        <v>333</v>
-      </c>
-      <c r="E63">
-        <v>28</v>
-      </c>
-      <c r="G63">
-        <v>45</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <v>5</v>
-      </c>
-      <c r="J63" t="s">
-        <v>239</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L63">
-        <v>79455</v>
-      </c>
-      <c r="M63">
-        <v>1341</v>
-      </c>
-      <c r="N63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>31</v>
-      </c>
-      <c r="B64" t="s">
-        <v>257</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" t="s">
-        <v>333</v>
-      </c>
-      <c r="E64">
-        <v>28</v>
-      </c>
-      <c r="G64">
-        <v>45</v>
-      </c>
-      <c r="H64">
-        <v>3</v>
-      </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
-      <c r="J64" t="s">
-        <v>239</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="L64">
-        <v>79792</v>
-      </c>
-      <c r="M64">
-        <v>1341</v>
-      </c>
-      <c r="N64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>32</v>
-      </c>
-      <c r="B65" t="s">
-        <v>300</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D65" t="s">
-        <v>333</v>
-      </c>
-      <c r="E65">
-        <v>28</v>
-      </c>
-      <c r="G65">
-        <v>45</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-      <c r="I65">
-        <v>5</v>
-      </c>
-      <c r="J65" t="s">
-        <v>239</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="L65">
-        <v>80086</v>
-      </c>
-      <c r="M65">
-        <v>1341</v>
-      </c>
-      <c r="N65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>33</v>
-      </c>
-      <c r="B66" t="s">
-        <v>301</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" t="s">
-        <v>333</v>
-      </c>
-      <c r="E66">
-        <v>28</v>
-      </c>
-      <c r="G66">
-        <v>45</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-      <c r="I66">
-        <v>5</v>
-      </c>
-      <c r="J66" t="s">
-        <v>239</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="L66">
-        <v>80562</v>
-      </c>
-      <c r="M66">
-        <v>1341</v>
-      </c>
-      <c r="N66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>34</v>
-      </c>
-      <c r="B67" t="s">
-        <v>259</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D67" t="s">
-        <v>333</v>
-      </c>
-      <c r="E67">
-        <v>28</v>
-      </c>
-      <c r="G67">
-        <v>45</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
-      <c r="I67">
-        <v>5</v>
-      </c>
-      <c r="J67" t="s">
-        <v>239</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="L67">
-        <v>80916</v>
-      </c>
-      <c r="M67">
-        <v>1341</v>
-      </c>
-      <c r="N67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>261</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" t="s">
-        <v>333</v>
-      </c>
-      <c r="E68">
-        <v>28</v>
-      </c>
-      <c r="G68">
-        <v>45</v>
-      </c>
-      <c r="H68">
-        <v>3</v>
-      </c>
-      <c r="I68">
-        <v>5</v>
-      </c>
-      <c r="J68" t="s">
-        <v>239</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="L68">
-        <v>81501</v>
-      </c>
-      <c r="M68">
-        <v>1341</v>
-      </c>
-      <c r="N68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>36</v>
-      </c>
-      <c r="B69" t="s">
-        <v>302</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D69" t="s">
-        <v>333</v>
-      </c>
-      <c r="E69">
-        <v>28</v>
-      </c>
-      <c r="G69">
-        <v>45</v>
-      </c>
-      <c r="H69">
-        <v>3</v>
-      </c>
-      <c r="I69">
-        <v>5</v>
-      </c>
-      <c r="J69" t="s">
-        <v>239</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="L69">
-        <v>81911</v>
-      </c>
-      <c r="M69">
-        <v>1341</v>
-      </c>
-      <c r="N69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>37</v>
-      </c>
-      <c r="B70" t="s">
-        <v>303</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" t="s">
-        <v>333</v>
-      </c>
-      <c r="E70">
-        <v>28</v>
-      </c>
-      <c r="G70">
-        <v>45</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-      <c r="I70">
-        <v>5</v>
-      </c>
-      <c r="J70" t="s">
-        <v>239</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="L70">
-        <v>82252</v>
-      </c>
-      <c r="M70">
-        <v>1341</v>
-      </c>
-      <c r="N70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>38</v>
-      </c>
-      <c r="B71" t="s">
-        <v>304</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" t="s">
-        <v>333</v>
-      </c>
-      <c r="E71">
-        <v>28</v>
-      </c>
-      <c r="G71">
-        <v>45</v>
-      </c>
-      <c r="H71">
-        <v>3</v>
-      </c>
-      <c r="I71">
-        <v>5</v>
-      </c>
-      <c r="J71" t="s">
-        <v>239</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="L71">
-        <v>82634</v>
-      </c>
-      <c r="M71">
-        <v>1341</v>
-      </c>
-      <c r="N71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>305</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D72" t="s">
-        <v>333</v>
-      </c>
-      <c r="E72">
-        <v>28</v>
-      </c>
-      <c r="G72">
-        <v>45</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
-      <c r="I72">
-        <v>5</v>
-      </c>
-      <c r="J72" t="s">
-        <v>239</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="L72">
-        <v>83111</v>
-      </c>
-      <c r="M72">
-        <v>1341</v>
-      </c>
-      <c r="N72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>40</v>
-      </c>
-      <c r="B73" t="s">
-        <v>306</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D73" t="s">
-        <v>333</v>
-      </c>
-      <c r="E73">
-        <v>28</v>
-      </c>
-      <c r="G73">
-        <v>45</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
-      <c r="I73">
-        <v>5</v>
-      </c>
-      <c r="J73" t="s">
-        <v>239</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="L73">
-        <v>83509</v>
-      </c>
-      <c r="M73">
-        <v>1341</v>
-      </c>
-      <c r="N73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>41</v>
-      </c>
-      <c r="B74" t="s">
-        <v>307</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" t="s">
-        <v>333</v>
-      </c>
-      <c r="E74">
-        <v>28</v>
-      </c>
-      <c r="G74">
-        <v>45</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="I74">
-        <v>5</v>
-      </c>
-      <c r="J74" t="s">
-        <v>239</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="L74">
-        <v>84177</v>
-      </c>
-      <c r="M74">
-        <v>1341</v>
-      </c>
-      <c r="N74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>42</v>
-      </c>
-      <c r="B75" t="s">
-        <v>308</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D75" t="s">
-        <v>333</v>
-      </c>
-      <c r="E75">
-        <v>28</v>
-      </c>
-      <c r="G75">
-        <v>45</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75">
-        <v>5</v>
-      </c>
-      <c r="J75" t="s">
-        <v>239</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="L75">
-        <v>84585</v>
-      </c>
-      <c r="M75">
-        <v>1341</v>
-      </c>
-      <c r="N75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>43</v>
-      </c>
-      <c r="B76" t="s">
-        <v>309</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D76" t="s">
-        <v>333</v>
-      </c>
-      <c r="E76">
-        <v>28</v>
-      </c>
-      <c r="G76">
-        <v>45</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76">
-        <v>5</v>
-      </c>
-      <c r="J76" t="s">
-        <v>239</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="L76">
-        <v>85114</v>
-      </c>
-      <c r="M76">
-        <v>1341</v>
-      </c>
-      <c r="N76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>44</v>
-      </c>
-      <c r="B77" t="s">
-        <v>310</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D77" t="s">
-        <v>333</v>
-      </c>
-      <c r="E77">
-        <v>28</v>
-      </c>
-      <c r="G77">
-        <v>45</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77">
-        <v>5</v>
-      </c>
-      <c r="J77" t="s">
-        <v>239</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="L77">
-        <v>85521</v>
-      </c>
-      <c r="M77">
-        <v>1341</v>
-      </c>
-      <c r="N77" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>45</v>
-      </c>
-      <c r="B78" t="s">
-        <v>311</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D78" t="s">
-        <v>333</v>
-      </c>
-      <c r="E78">
-        <v>28</v>
-      </c>
-      <c r="G78">
-        <v>45</v>
-      </c>
-      <c r="H78">
-        <v>5</v>
-      </c>
-      <c r="I78">
-        <v>5</v>
-      </c>
-      <c r="J78" t="s">
-        <v>371</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="L78">
-        <v>86050</v>
-      </c>
-      <c r="M78">
-        <v>1341</v>
-      </c>
-      <c r="N78" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Diad_Fitting_Nov22nd2022/Fityk_results.xlsx
+++ b/docs/Examples/Diad_Fitting_Nov22nd2022/Fityk_results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\DiadFit_outer\docs\Examples\Diad_Fitting_Nov22nd2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF5FBC-CEB8-4B91-A1AF-75722F174CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940268D-240E-4C0A-ABDC-05E317F9BA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="34245" yWindow="2520" windowWidth="14400" windowHeight="7455" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10480" firstSheet="1" activeTab="1" xr2:uid="{FF1FF9BC-1B90-4EFB-8E6E-B9863C148F5B}"/>
   </bookViews>
   <sheets>
     <sheet name="112820_FULL" sheetId="1" r:id="rId1"/>
-    <sheet name="NEON" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="5thdec" sheetId="8" r:id="rId2"/>
+    <sheet name="NEON" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1074,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1090,6 +1091,12 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7326,11 +7333,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDC9769-CDC1-424D-9AE4-8B7EF174E4CB}">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10199,78 +10206,78 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+    <row r="39" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
         <v>44163</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="14">
         <v>0.9387847222222222</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="12">
         <v>1286.4811</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="12">
         <v>1389.3024</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="12">
         <f t="shared" si="4"/>
         <v>102.82130000000006</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="15">
         <f t="shared" si="5"/>
         <v>102.88301343893751</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="12">
         <v>1.79</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="15">
         <v>1.7976616516113282</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="15">
         <v>5.3420147268837259E-4</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="16">
         <v>37</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="17">
         <v>36.979999999999997</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="18">
         <v>4.4444444444451392E-3</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="12">
         <v>3.3450000000000001E-2</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="12">
         <v>1123.4594</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="12">
         <v>1453.7388000000001</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="12">
         <f t="shared" si="6"/>
         <v>330.27940000000012</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S39" s="17">
         <f t="shared" si="7"/>
         <v>330.47763400000008</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="17">
         <v>1122.7762889999999</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U39" s="17">
         <v>1225.7967639999999</v>
       </c>
-      <c r="V39" s="9">
+      <c r="V39" s="17">
         <v>1453.253923</v>
       </c>
-      <c r="W39" t="s">
+      <c r="W39" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="X39" t="s">
+      <c r="X39" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -11726,6 +11733,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05547686-82D0-477B-B94E-768A01BD3528}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8156891-BA79-4840-AC6F-FEF4D8CA7F3B}">
   <dimension ref="A1:BG78"/>
   <sheetViews>
@@ -16964,7 +16985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7E02C-311D-4304-9009-D9F0B8179AF8}">
   <dimension ref="A1:V20"/>
   <sheetViews>
